--- a/Stocks/SPY/SPY_HighLow.xlsx
+++ b/Stocks/SPY/SPY_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>385.9800109863281</v>
+        <v>408.3900146484375</v>
       </c>
       <c r="B2">
-        <v>390.5499877929688</v>
+        <v>411.6700134277344</v>
       </c>
       <c r="C2">
-        <v>383.8999938964844</v>
+        <v>408.260009765625</v>
       </c>
       <c r="D2">
-        <v>389.7000122070312</v>
+        <v>411.489990234375</v>
       </c>
       <c r="E2">
-        <v>387.1888122558594</v>
+        <v>408.83837890625</v>
       </c>
       <c r="F2">
-        <v>116128600</v>
+        <v>61104600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>390.9299926757812</v>
+        <v>410.8500061035156</v>
       </c>
       <c r="B3">
-        <v>396.4100036621094</v>
+        <v>411.9299926757812</v>
       </c>
       <c r="C3">
-        <v>390.2900085449219</v>
+        <v>410.2000122070312</v>
       </c>
       <c r="D3">
-        <v>395.9800109863281</v>
+        <v>411.6400146484375</v>
       </c>
       <c r="E3">
-        <v>393.4283447265625</v>
+        <v>408.9874267578125</v>
       </c>
       <c r="F3">
-        <v>114409100</v>
+        <v>56704900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>394.3999938964844</v>
+        <v>411.5299987792969</v>
       </c>
       <c r="B4">
-        <v>396.75</v>
+        <v>413.5299987792969</v>
       </c>
       <c r="C4">
-        <v>392.8099975585938</v>
+        <v>411.1199951171875</v>
       </c>
       <c r="D4">
-        <v>395.7799987792969</v>
+        <v>412.8599853515625</v>
       </c>
       <c r="E4">
-        <v>393.2296447753906</v>
+        <v>410.1995239257812</v>
       </c>
       <c r="F4">
-        <v>108107600</v>
+        <v>56551000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>394.4200134277344</v>
+        <v>412.8299865722656</v>
       </c>
       <c r="B5">
-        <v>395.4500122070312</v>
+        <v>413.9599914550781</v>
       </c>
       <c r="C5">
-        <v>393.0199890136719</v>
+        <v>410.8699951171875</v>
       </c>
       <c r="D5">
-        <v>394.7300109863281</v>
+        <v>411.4500122070312</v>
       </c>
       <c r="E5">
-        <v>392.1863708496094</v>
+        <v>408.7986755371094</v>
       </c>
       <c r="F5">
-        <v>76262200</v>
+        <v>61659900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>395.3399963378906</v>
+        <v>413.739990234375</v>
       </c>
       <c r="B6">
-        <v>398</v>
+        <v>416.1600036621094</v>
       </c>
       <c r="C6">
-        <v>395.3099975585938</v>
+        <v>413.6900024414062</v>
       </c>
       <c r="D6">
-        <v>396.3299865722656</v>
+        <v>415.8699951171875</v>
       </c>
       <c r="E6">
-        <v>393.7760620117188</v>
+        <v>413.1901550292969</v>
       </c>
       <c r="F6">
-        <v>112734200</v>
+        <v>60229800</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>398.3999938964844</v>
+        <v>417.25</v>
       </c>
       <c r="B7">
-        <v>400.6700134277344</v>
+        <v>417.9100036621094</v>
       </c>
       <c r="C7">
-        <v>398.1799926757812</v>
+        <v>415.7300109863281</v>
       </c>
       <c r="D7">
-        <v>400.6099853515625</v>
+        <v>417.260009765625</v>
       </c>
       <c r="E7">
-        <v>398.0284729003906</v>
+        <v>414.5712280273438</v>
       </c>
       <c r="F7">
-        <v>99682900</v>
+        <v>82037300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>403.4599914550781</v>
+        <v>416.260009765625</v>
       </c>
       <c r="B8">
-        <v>406.9400024414062</v>
+        <v>416.739990234375</v>
       </c>
       <c r="C8">
-        <v>403.3800048828125</v>
+        <v>413.7900085449219</v>
       </c>
       <c r="D8">
-        <v>406.3599853515625</v>
+        <v>415.2099914550781</v>
       </c>
       <c r="E8">
-        <v>403.7414245605469</v>
+        <v>412.5343933105469</v>
       </c>
       <c r="F8">
-        <v>91684800</v>
+        <v>78498500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>405.760009765625</v>
+        <v>413.9100036621094</v>
       </c>
       <c r="B9">
-        <v>407.239990234375</v>
+        <v>415.0899963378906</v>
       </c>
       <c r="C9">
-        <v>405.3999938964844</v>
+        <v>410.5899963378906</v>
       </c>
       <c r="D9">
-        <v>406.1199951171875</v>
+        <v>412.1700134277344</v>
       </c>
       <c r="E9">
-        <v>403.5029907226562</v>
+        <v>409.5140075683594</v>
       </c>
       <c r="F9">
-        <v>62021000</v>
+        <v>81851800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>405.9400024414062</v>
+        <v>411.510009765625</v>
       </c>
       <c r="B10">
-        <v>406.9599914550781</v>
+        <v>416.2900085449219</v>
       </c>
       <c r="C10">
-        <v>405.4500122070312</v>
+        <v>411.3599853515625</v>
       </c>
       <c r="D10">
-        <v>406.5899963378906</v>
+        <v>416.0700073242188</v>
       </c>
       <c r="E10">
-        <v>403.9699401855469</v>
+        <v>413.3888549804688</v>
       </c>
       <c r="F10">
-        <v>55836300</v>
+        <v>66793000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>407.9299926757812</v>
+        <v>415.8900146484375</v>
       </c>
       <c r="B11">
-        <v>408.5799865722656</v>
+        <v>416.7799987792969</v>
       </c>
       <c r="C11">
-        <v>406.9299926757812</v>
+        <v>411.1300048828125</v>
       </c>
       <c r="D11">
-        <v>408.5199890136719</v>
+        <v>412.2699890136719</v>
       </c>
       <c r="E11">
-        <v>405.8875122070312</v>
+        <v>409.6133422851562</v>
       </c>
       <c r="F11">
-        <v>57863100</v>
+        <v>97582800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>408.3900146484375</v>
+        <v>412.8699951171875</v>
       </c>
       <c r="B12">
-        <v>411.6700134277344</v>
+        <v>418.25</v>
       </c>
       <c r="C12">
-        <v>408.260009765625</v>
+        <v>412.7900085449219</v>
       </c>
       <c r="D12">
-        <v>411.489990234375</v>
+        <v>416.739990234375</v>
       </c>
       <c r="E12">
-        <v>408.83837890625</v>
+        <v>414.0545349121094</v>
       </c>
       <c r="F12">
-        <v>61104600</v>
+        <v>73209200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>410.8500061035156</v>
+        <v>417.4400024414062</v>
       </c>
       <c r="B13">
-        <v>411.9299926757812</v>
+        <v>418.2200012207031</v>
       </c>
       <c r="C13">
-        <v>410.2000122070312</v>
+        <v>416.8099975585938</v>
       </c>
       <c r="D13">
-        <v>411.6400146484375</v>
+        <v>417.6099853515625</v>
       </c>
       <c r="E13">
-        <v>408.9874267578125</v>
+        <v>414.9189147949219</v>
       </c>
       <c r="F13">
-        <v>56704900</v>
+        <v>52182400</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>411.5299987792969</v>
+        <v>417.9299926757812</v>
       </c>
       <c r="B14">
-        <v>413.5299987792969</v>
+        <v>418.1400146484375</v>
       </c>
       <c r="C14">
-        <v>411.1199951171875</v>
+        <v>416.2999877929688</v>
       </c>
       <c r="D14">
-        <v>412.8599853515625</v>
+        <v>417.5199890136719</v>
       </c>
       <c r="E14">
-        <v>410.1995239257812</v>
+        <v>414.8295288085938</v>
       </c>
       <c r="F14">
-        <v>56551000</v>
+        <v>51303100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>412.8299865722656</v>
+        <v>417.8099975585938</v>
       </c>
       <c r="B15">
-        <v>413.9599914550781</v>
+        <v>419.010009765625</v>
       </c>
       <c r="C15">
-        <v>410.8699951171875</v>
+        <v>416.8999938964844</v>
       </c>
       <c r="D15">
-        <v>411.4500122070312</v>
+        <v>417.3999938964844</v>
       </c>
       <c r="E15">
-        <v>408.7986755371094</v>
+        <v>414.7102966308594</v>
       </c>
       <c r="F15">
-        <v>61659900</v>
+        <v>51238900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>413.739990234375</v>
+        <v>420.3200073242188</v>
       </c>
       <c r="B16">
-        <v>416.1600036621094</v>
+        <v>420.7200012207031</v>
       </c>
       <c r="C16">
-        <v>413.6900024414062</v>
+        <v>416.4400024414062</v>
       </c>
       <c r="D16">
-        <v>415.8699951171875</v>
+        <v>420.0599975585938</v>
       </c>
       <c r="E16">
-        <v>413.1901550292969</v>
+        <v>417.3531494140625</v>
       </c>
       <c r="F16">
-        <v>60229800</v>
+        <v>78544300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>417.25</v>
+        <v>417.6300048828125</v>
       </c>
       <c r="B17">
-        <v>417.9100036621094</v>
+        <v>418.5400085449219</v>
       </c>
       <c r="C17">
-        <v>415.7300109863281</v>
+        <v>416.3399963378906</v>
       </c>
       <c r="D17">
-        <v>417.260009765625</v>
+        <v>417.2999877929688</v>
       </c>
       <c r="E17">
-        <v>414.5712280273438</v>
+        <v>414.6109313964844</v>
       </c>
       <c r="F17">
-        <v>82037300</v>
+        <v>85527000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>416.260009765625</v>
+        <v>419.4299926757812</v>
       </c>
       <c r="B18">
-        <v>416.739990234375</v>
+        <v>419.8399963378906</v>
       </c>
       <c r="C18">
-        <v>413.7900085449219</v>
+        <v>417.6700134277344</v>
       </c>
       <c r="D18">
-        <v>415.2099914550781</v>
+        <v>418.2000122070312</v>
       </c>
       <c r="E18">
-        <v>412.5343933105469</v>
+        <v>415.5051574707031</v>
       </c>
       <c r="F18">
-        <v>78498500</v>
+        <v>68128300</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>413.9100036621094</v>
+        <v>416.0700073242188</v>
       </c>
       <c r="B19">
-        <v>415.0899963378906</v>
+        <v>416.6000061035156</v>
       </c>
       <c r="C19">
-        <v>410.5899963378906</v>
+        <v>411.6700134277344</v>
       </c>
       <c r="D19">
-        <v>412.1700134277344</v>
+        <v>415.6199951171875</v>
       </c>
       <c r="E19">
-        <v>409.5140075683594</v>
+        <v>412.9417419433594</v>
       </c>
       <c r="F19">
-        <v>81851800</v>
+        <v>101591200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>411.510009765625</v>
+        <v>417.3800048828125</v>
       </c>
       <c r="B20">
-        <v>416.2900085449219</v>
+        <v>417.6300048828125</v>
       </c>
       <c r="C20">
-        <v>411.3599853515625</v>
+        <v>415.1499938964844</v>
       </c>
       <c r="D20">
-        <v>416.0700073242188</v>
+        <v>415.75</v>
       </c>
       <c r="E20">
-        <v>413.3888549804688</v>
+        <v>413.0709533691406</v>
       </c>
       <c r="F20">
-        <v>66793000</v>
+        <v>60162200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>415.8900146484375</v>
+        <v>415.8299865722656</v>
       </c>
       <c r="B21">
-        <v>416.7799987792969</v>
+        <v>419.2099914550781</v>
       </c>
       <c r="C21">
-        <v>411.1300048828125</v>
+        <v>413.6799926757812</v>
       </c>
       <c r="D21">
-        <v>412.2699890136719</v>
+        <v>419.0700073242188</v>
       </c>
       <c r="E21">
-        <v>409.6133422851562</v>
+        <v>416.3695373535156</v>
       </c>
       <c r="F21">
-        <v>97582800</v>
+        <v>74321400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>412.8699951171875</v>
+        <v>419.8900146484375</v>
       </c>
       <c r="B22">
-        <v>418.25</v>
+        <v>422.8200073242188</v>
       </c>
       <c r="C22">
-        <v>412.7900085449219</v>
+        <v>419.1600036621094</v>
       </c>
       <c r="D22">
-        <v>416.739990234375</v>
+        <v>422.1199951171875</v>
       </c>
       <c r="E22">
-        <v>414.0545349121094</v>
+        <v>419.3998718261719</v>
       </c>
       <c r="F22">
-        <v>73209200</v>
+        <v>67733800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>417.4400024414062</v>
+        <v>422.5</v>
       </c>
       <c r="B23">
-        <v>418.2200012207031</v>
+        <v>422.739990234375</v>
       </c>
       <c r="C23">
-        <v>416.8099975585938</v>
+        <v>417.8099975585938</v>
       </c>
       <c r="D23">
-        <v>417.6099853515625</v>
+        <v>417.9400024414062</v>
       </c>
       <c r="E23">
-        <v>414.9189147949219</v>
+        <v>415.246826171875</v>
       </c>
       <c r="F23">
-        <v>52182400</v>
+        <v>81852400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>417.9299926757812</v>
+        <v>413.1000061035156</v>
       </c>
       <c r="B24">
-        <v>418.1400146484375</v>
+        <v>415.2699890136719</v>
       </c>
       <c r="C24">
-        <v>416.2999877929688</v>
+        <v>410.0599975585938</v>
       </c>
       <c r="D24">
-        <v>417.5199890136719</v>
+        <v>414.2099914550781</v>
       </c>
       <c r="E24">
-        <v>414.8295288085938</v>
+        <v>411.5408630371094</v>
       </c>
       <c r="F24">
-        <v>51303100</v>
+        <v>116888000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>417.8099975585938</v>
+        <v>411.2300109863281</v>
       </c>
       <c r="B25">
-        <v>419.010009765625</v>
+        <v>412.5899963378906</v>
       </c>
       <c r="C25">
-        <v>416.8999938964844</v>
+        <v>404</v>
       </c>
       <c r="D25">
-        <v>417.3999938964844</v>
+        <v>405.4100036621094</v>
       </c>
       <c r="E25">
-        <v>414.7102966308594</v>
+        <v>402.7975769042969</v>
       </c>
       <c r="F25">
-        <v>51238900</v>
+        <v>134811000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>420.3200073242188</v>
+        <v>407.0700073242188</v>
       </c>
       <c r="B26">
-        <v>420.7200012207031</v>
+        <v>412.3500061035156</v>
       </c>
       <c r="C26">
-        <v>416.4400024414062</v>
+        <v>407.0199890136719</v>
       </c>
       <c r="D26">
-        <v>420.0599975585938</v>
+        <v>410.2799987792969</v>
       </c>
       <c r="E26">
-        <v>417.3531494140625</v>
+        <v>407.6361694335938</v>
       </c>
       <c r="F26">
-        <v>78544300</v>
+        <v>106394000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>417.6300048828125</v>
+        <v>413.2099914550781</v>
       </c>
       <c r="B27">
-        <v>418.5400085449219</v>
+        <v>417.489990234375</v>
       </c>
       <c r="C27">
-        <v>416.3399963378906</v>
+        <v>413.1799926757812</v>
       </c>
       <c r="D27">
-        <v>417.2999877929688</v>
+        <v>416.5799865722656</v>
       </c>
       <c r="E27">
-        <v>414.6109313964844</v>
+        <v>413.8955688476562</v>
       </c>
       <c r="F27">
-        <v>85527000</v>
+        <v>82201600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>419.4299926757812</v>
+        <v>415.3900146484375</v>
       </c>
       <c r="B28">
-        <v>419.8399963378906</v>
+        <v>416.3900146484375</v>
       </c>
       <c r="C28">
-        <v>417.6700134277344</v>
+        <v>413.3599853515625</v>
       </c>
       <c r="D28">
-        <v>418.2000122070312</v>
+        <v>415.5199890136719</v>
       </c>
       <c r="E28">
-        <v>415.5051574707031</v>
+        <v>412.8424072265625</v>
       </c>
       <c r="F28">
-        <v>68128300</v>
+        <v>65129200</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>416.0700073242188</v>
+        <v>415.7999877929688</v>
       </c>
       <c r="B29">
-        <v>416.6000061035156</v>
+        <v>416.0599975585938</v>
       </c>
       <c r="C29">
-        <v>411.6700134277344</v>
+        <v>411.7699890136719</v>
       </c>
       <c r="D29">
-        <v>415.6199951171875</v>
+        <v>411.9400024414062</v>
       </c>
       <c r="E29">
-        <v>412.9417419433594</v>
+        <v>409.2854919433594</v>
       </c>
       <c r="F29">
-        <v>101591200</v>
+        <v>59810200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>417.3800048828125</v>
+        <v>406.9200134277344</v>
       </c>
       <c r="B30">
-        <v>417.6300048828125</v>
+        <v>411.0499877929688</v>
       </c>
       <c r="C30">
-        <v>415.1499938964844</v>
+        <v>405.3299865722656</v>
       </c>
       <c r="D30">
-        <v>415.75</v>
+        <v>410.8599853515625</v>
       </c>
       <c r="E30">
-        <v>413.0709533691406</v>
+        <v>408.2124328613281</v>
       </c>
       <c r="F30">
-        <v>60162200</v>
+        <v>106467100</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>415.8299865722656</v>
+        <v>411.7999877929688</v>
       </c>
       <c r="B31">
-        <v>419.2099914550781</v>
+        <v>416.6300048828125</v>
       </c>
       <c r="C31">
-        <v>413.6799926757812</v>
+        <v>411.6700134277344</v>
       </c>
       <c r="D31">
-        <v>419.0700073242188</v>
+        <v>415.2799987792969</v>
       </c>
       <c r="E31">
-        <v>416.3695373535156</v>
+        <v>412.6039733886719</v>
       </c>
       <c r="F31">
-        <v>74321400</v>
+        <v>78022200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>419.8900146484375</v>
+        <v>416.8699951171875</v>
       </c>
       <c r="B32">
-        <v>422.8200073242188</v>
+        <v>418.2000122070312</v>
       </c>
       <c r="C32">
-        <v>419.1600036621094</v>
+        <v>414.4500122070312</v>
       </c>
       <c r="D32">
-        <v>422.1199951171875</v>
+        <v>414.9400024414062</v>
       </c>
       <c r="E32">
-        <v>419.3998718261719</v>
+        <v>412.2661743164062</v>
       </c>
       <c r="F32">
-        <v>67733800</v>
+        <v>76578700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>422.5</v>
+        <v>417.3399963378906</v>
       </c>
       <c r="B33">
-        <v>422.739990234375</v>
+        <v>420.3200073242188</v>
       </c>
       <c r="C33">
-        <v>417.8099975585938</v>
+        <v>417.0799865722656</v>
       </c>
       <c r="D33">
-        <v>417.9400024414062</v>
+        <v>419.1700134277344</v>
       </c>
       <c r="E33">
-        <v>415.246826171875</v>
+        <v>416.4689025878906</v>
       </c>
       <c r="F33">
-        <v>81852400</v>
+        <v>51376700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>413.1000061035156</v>
+        <v>420.3299865722656</v>
       </c>
       <c r="B34">
-        <v>415.2699890136719</v>
+        <v>420.7099914550781</v>
       </c>
       <c r="C34">
-        <v>410.0599975585938</v>
+        <v>417.6199951171875</v>
       </c>
       <c r="D34">
-        <v>414.2099914550781</v>
+        <v>418.239990234375</v>
       </c>
       <c r="E34">
-        <v>411.5408630371094</v>
+        <v>415.5448608398438</v>
       </c>
       <c r="F34">
-        <v>116888000</v>
+        <v>57451400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>411.2300109863281</v>
+        <v>418.8699951171875</v>
       </c>
       <c r="B35">
-        <v>412.5899963378906</v>
+        <v>419.6099853515625</v>
       </c>
       <c r="C35">
-        <v>404</v>
+        <v>417.760009765625</v>
       </c>
       <c r="D35">
-        <v>405.4100036621094</v>
+        <v>419.0700073242188</v>
       </c>
       <c r="E35">
-        <v>402.7975769042969</v>
+        <v>416.3695373535156</v>
       </c>
       <c r="F35">
-        <v>134811000</v>
+        <v>43088600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>407.0700073242188</v>
+        <v>420.1700134277344</v>
       </c>
       <c r="B36">
-        <v>412.3500061035156</v>
+        <v>420.7200012207031</v>
       </c>
       <c r="C36">
-        <v>407.0199890136719</v>
+        <v>418.989990234375</v>
       </c>
       <c r="D36">
-        <v>410.2799987792969</v>
+        <v>419.2900085449219</v>
       </c>
       <c r="E36">
-        <v>407.6361694335938</v>
+        <v>416.5881042480469</v>
       </c>
       <c r="F36">
-        <v>106394000</v>
+        <v>56707700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>413.2099914550781</v>
+        <v>420.9700012207031</v>
       </c>
       <c r="B37">
-        <v>417.489990234375</v>
+        <v>421.25</v>
       </c>
       <c r="C37">
-        <v>413.1799926757812</v>
+        <v>419.7900085449219</v>
       </c>
       <c r="D37">
-        <v>416.5799865722656</v>
+        <v>420.0400085449219</v>
       </c>
       <c r="E37">
-        <v>413.8955688476562</v>
+        <v>417.3333129882812</v>
       </c>
       <c r="F37">
-        <v>82201600</v>
+        <v>58520200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>415.3900146484375</v>
+        <v>422.5700073242188</v>
       </c>
       <c r="B38">
-        <v>416.3900146484375</v>
+        <v>422.7200012207031</v>
       </c>
       <c r="C38">
-        <v>413.3599853515625</v>
+        <v>419.2000122070312</v>
       </c>
       <c r="D38">
-        <v>415.5199890136719</v>
+        <v>419.6700134277344</v>
       </c>
       <c r="E38">
-        <v>412.8424072265625</v>
+        <v>416.9656982421875</v>
       </c>
       <c r="F38">
-        <v>65129200</v>
+        <v>54216600</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>415.7999877929688</v>
+        <v>420.3699951171875</v>
       </c>
       <c r="B39">
-        <v>416.0599975585938</v>
+        <v>421.2300109863281</v>
       </c>
       <c r="C39">
-        <v>411.7699890136719</v>
+        <v>419.2900085449219</v>
       </c>
       <c r="D39">
-        <v>411.9400024414062</v>
+        <v>420.3299865722656</v>
       </c>
       <c r="E39">
-        <v>409.2854919433594</v>
+        <v>417.6214294433594</v>
       </c>
       <c r="F39">
-        <v>59810200</v>
+        <v>49097100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>406.9200134277344</v>
+        <v>417.8500061035156</v>
       </c>
       <c r="B40">
-        <v>411.0499877929688</v>
+        <v>419.989990234375</v>
       </c>
       <c r="C40">
-        <v>405.3299865722656</v>
+        <v>416.2799987792969</v>
       </c>
       <c r="D40">
-        <v>410.8599853515625</v>
+        <v>418.7699890136719</v>
       </c>
       <c r="E40">
-        <v>408.2124328613281</v>
+        <v>416.0714721679688</v>
       </c>
       <c r="F40">
-        <v>106467100</v>
+        <v>58138800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>411.7999877929688</v>
+        <v>420.75</v>
       </c>
       <c r="B41">
-        <v>416.6300048828125</v>
+        <v>422.9200134277344</v>
       </c>
       <c r="C41">
-        <v>411.6700134277344</v>
+        <v>418.8399963378906</v>
       </c>
       <c r="D41">
-        <v>415.2799987792969</v>
+        <v>422.6000061035156</v>
       </c>
       <c r="E41">
-        <v>412.6039733886719</v>
+        <v>419.8768005371094</v>
       </c>
       <c r="F41">
-        <v>78022200</v>
+        <v>55938800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>416.8699951171875</v>
+        <v>422.5899963378906</v>
       </c>
       <c r="B42">
-        <v>418.2000122070312</v>
+        <v>422.7799987792969</v>
       </c>
       <c r="C42">
-        <v>414.4500122070312</v>
+        <v>421.1900024414062</v>
       </c>
       <c r="D42">
-        <v>414.9400024414062</v>
+        <v>422.1900024414062</v>
       </c>
       <c r="E42">
-        <v>412.2661743164062</v>
+        <v>419.4694519042969</v>
       </c>
       <c r="F42">
-        <v>76578700</v>
+        <v>51555000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>417.3399963378906</v>
+        <v>423.1099853515625</v>
       </c>
       <c r="B43">
+        <v>423.2099914550781</v>
+      </c>
+      <c r="C43">
         <v>420.3200073242188</v>
       </c>
-      <c r="C43">
-        <v>417.0799865722656</v>
-      </c>
       <c r="D43">
-        <v>419.1700134277344</v>
+        <v>422.2799987792969</v>
       </c>
       <c r="E43">
-        <v>416.4689025878906</v>
+        <v>419.5588684082031</v>
       </c>
       <c r="F43">
-        <v>51376700</v>
+        <v>47134300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>420.3299865722656</v>
+        <v>423.1799926757812</v>
       </c>
       <c r="B44">
-        <v>420.7099914550781</v>
+        <v>423.260009765625</v>
       </c>
       <c r="C44">
-        <v>417.6199951171875</v>
+        <v>421.4100036621094</v>
       </c>
       <c r="D44">
-        <v>418.239990234375</v>
+        <v>421.6499938964844</v>
       </c>
       <c r="E44">
-        <v>415.5448608398438</v>
+        <v>418.9328918457031</v>
       </c>
       <c r="F44">
-        <v>57451400</v>
+        <v>48436300</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>418.8699951171875</v>
+        <v>422.9599914550781</v>
       </c>
       <c r="B45">
-        <v>419.6099853515625</v>
+        <v>424.6300048828125</v>
       </c>
       <c r="C45">
-        <v>417.760009765625</v>
+        <v>421.5499877929688</v>
       </c>
       <c r="D45">
-        <v>419.0700073242188</v>
+        <v>423.6099853515625</v>
       </c>
       <c r="E45">
-        <v>416.3695373535156</v>
+        <v>420.8802490234375</v>
       </c>
       <c r="F45">
-        <v>43088600</v>
+        <v>51020100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>420.1700134277344</v>
+        <v>424.2000122070312</v>
       </c>
       <c r="B46">
-        <v>420.7200012207031</v>
+        <v>424.4299926757812</v>
       </c>
       <c r="C46">
-        <v>418.989990234375</v>
+        <v>422.8200073242188</v>
       </c>
       <c r="D46">
-        <v>419.2900085449219</v>
+        <v>424.3099975585938</v>
       </c>
       <c r="E46">
-        <v>416.5881042480469</v>
+        <v>421.5757751464844</v>
       </c>
       <c r="F46">
-        <v>56707700</v>
+        <v>45570800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>420.9700012207031</v>
+        <v>424.4299926757812</v>
       </c>
       <c r="B47">
-        <v>421.25</v>
+        <v>425.3699951171875</v>
       </c>
       <c r="C47">
-        <v>419.7900085449219</v>
+        <v>423.1000061035156</v>
       </c>
       <c r="D47">
-        <v>420.0400085449219</v>
+        <v>425.260009765625</v>
       </c>
       <c r="E47">
-        <v>417.3333129882812</v>
+        <v>422.5196838378906</v>
       </c>
       <c r="F47">
-        <v>58520200</v>
+        <v>42358500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>422.5700073242188</v>
+        <v>425.4200134277344</v>
       </c>
       <c r="B48">
-        <v>422.7200012207031</v>
+        <v>425.4599914550781</v>
       </c>
       <c r="C48">
-        <v>419.2000122070312</v>
+        <v>423.5400085449219</v>
       </c>
       <c r="D48">
-        <v>419.6700134277344</v>
+        <v>424.4800109863281</v>
       </c>
       <c r="E48">
-        <v>416.9656982421875</v>
+        <v>421.7446899414062</v>
       </c>
       <c r="F48">
-        <v>54216600</v>
+        <v>51508500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>420.3699951171875</v>
+        <v>424.6300048828125</v>
       </c>
       <c r="B49">
-        <v>421.2300109863281</v>
+        <v>424.8699951171875</v>
       </c>
       <c r="C49">
-        <v>419.2900085449219</v>
+        <v>419.9200134277344</v>
       </c>
       <c r="D49">
-        <v>420.3299865722656</v>
+        <v>422.1099853515625</v>
       </c>
       <c r="E49">
-        <v>417.6214294433594</v>
+        <v>419.3899230957031</v>
       </c>
       <c r="F49">
-        <v>49097100</v>
+        <v>80386100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>417.8500061035156</v>
+        <v>421.6700134277344</v>
       </c>
       <c r="B50">
-        <v>419.989990234375</v>
+        <v>423.0199890136719</v>
       </c>
       <c r="C50">
-        <v>416.2799987792969</v>
+        <v>419.3200073242188</v>
       </c>
       <c r="D50">
-        <v>418.7699890136719</v>
+        <v>421.9700012207031</v>
       </c>
       <c r="E50">
-        <v>416.0714721679688</v>
+        <v>419.2508544921875</v>
       </c>
       <c r="F50">
-        <v>58138800</v>
+        <v>90949700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>420.75</v>
+        <v>417.0899963378906</v>
       </c>
       <c r="B51">
-        <v>422.9200134277344</v>
+        <v>417.8299865722656</v>
       </c>
       <c r="C51">
-        <v>418.8399963378906</v>
+        <v>414.7000122070312</v>
       </c>
       <c r="D51">
-        <v>422.6000061035156</v>
+        <v>414.9200134277344</v>
       </c>
       <c r="E51">
-        <v>419.8768005371094</v>
+        <v>413.5950012207031</v>
       </c>
       <c r="F51">
-        <v>55938800</v>
+        <v>118676300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>422.5899963378906</v>
+        <v>416.7999877929688</v>
       </c>
       <c r="B52">
-        <v>422.7799987792969</v>
+        <v>421.0599975585938</v>
       </c>
       <c r="C52">
-        <v>421.1900024414062</v>
+        <v>415.9299926757812</v>
       </c>
       <c r="D52">
-        <v>422.1900024414062</v>
+        <v>420.8599853515625</v>
       </c>
       <c r="E52">
-        <v>419.4694519042969</v>
+        <v>419.5159912109375</v>
       </c>
       <c r="F52">
-        <v>51555000</v>
+        <v>72822000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
+        <v>420.8500061035156</v>
+      </c>
+      <c r="B53">
+        <v>424</v>
+      </c>
+      <c r="C53">
+        <v>420.0799865722656</v>
+      </c>
+      <c r="D53">
         <v>423.1099853515625</v>
       </c>
-      <c r="B53">
-        <v>423.2099914550781</v>
-      </c>
-      <c r="C53">
-        <v>420.3200073242188</v>
-      </c>
-      <c r="D53">
-        <v>422.2799987792969</v>
-      </c>
       <c r="E53">
-        <v>419.5588684082031</v>
+        <v>421.7588195800781</v>
       </c>
       <c r="F53">
-        <v>47134300</v>
+        <v>57700300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>423.1799926757812</v>
+        <v>423.1900024414062</v>
       </c>
       <c r="B54">
-        <v>423.260009765625</v>
+        <v>424.0499877929688</v>
       </c>
       <c r="C54">
-        <v>421.4100036621094</v>
+        <v>422.510009765625</v>
       </c>
       <c r="D54">
-        <v>421.6499938964844</v>
+        <v>422.6000061035156</v>
       </c>
       <c r="E54">
-        <v>418.9328918457031</v>
+        <v>421.2504577636719</v>
       </c>
       <c r="F54">
-        <v>48436300</v>
+        <v>49445400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>422.9599914550781</v>
+        <v>424.8900146484375</v>
       </c>
       <c r="B55">
-        <v>424.6300048828125</v>
+        <v>425.5499877929688</v>
       </c>
       <c r="C55">
-        <v>421.5499877929688</v>
+        <v>424.6199951171875</v>
       </c>
       <c r="D55">
-        <v>423.6099853515625</v>
+        <v>425.1000061035156</v>
       </c>
       <c r="E55">
-        <v>420.8802490234375</v>
+        <v>423.7424621582031</v>
       </c>
       <c r="F55">
-        <v>51020100</v>
+        <v>45110300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>424.2000122070312</v>
+        <v>425.8999938964844</v>
       </c>
       <c r="B56">
-        <v>424.4299926757812</v>
+        <v>427.0899963378906</v>
       </c>
       <c r="C56">
-        <v>422.8200073242188</v>
+        <v>425.5499877929688</v>
       </c>
       <c r="D56">
-        <v>424.3099975585938</v>
+        <v>426.6099853515625</v>
       </c>
       <c r="E56">
-        <v>421.5757751464844</v>
+        <v>425.2476196289062</v>
       </c>
       <c r="F56">
-        <v>45570800</v>
+        <v>58129500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>424.4299926757812</v>
+        <v>427.1700134277344</v>
       </c>
       <c r="B57">
-        <v>425.3699951171875</v>
+        <v>427.6499938964844</v>
       </c>
       <c r="C57">
-        <v>423.1000061035156</v>
+        <v>425.8900146484375</v>
       </c>
       <c r="D57">
-        <v>425.260009765625</v>
+        <v>427.4700012207031</v>
       </c>
       <c r="E57">
-        <v>422.5196838378906</v>
+        <v>426.1048889160156</v>
       </c>
       <c r="F57">
-        <v>42358500</v>
+        <v>53159600</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>425.4200134277344</v>
+        <v>427.8800048828125</v>
       </c>
       <c r="B58">
-        <v>425.4599914550781</v>
+        <v>428.5599975585938</v>
       </c>
       <c r="C58">
-        <v>423.5400085449219</v>
+        <v>427.1300048828125</v>
       </c>
       <c r="D58">
-        <v>424.4800109863281</v>
+        <v>427.7000122070312</v>
       </c>
       <c r="E58">
-        <v>421.7446899414062</v>
+        <v>426.3341674804688</v>
       </c>
       <c r="F58">
-        <v>51508500</v>
+        <v>35970500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>424.6300048828125</v>
+        <v>427.2099914550781</v>
       </c>
       <c r="B59">
-        <v>424.8699951171875</v>
+        <v>428.7799987792969</v>
       </c>
       <c r="C59">
-        <v>419.9200134277344</v>
+        <v>427.1799926757812</v>
       </c>
       <c r="D59">
-        <v>422.1099853515625</v>
+        <v>428.0599975585938</v>
       </c>
       <c r="E59">
-        <v>419.3899230957031</v>
+        <v>426.6930236816406</v>
       </c>
       <c r="F59">
-        <v>80386100</v>
+        <v>64827900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>421.6700134277344</v>
+        <v>428.8699951171875</v>
       </c>
       <c r="B60">
-        <v>423.0199890136719</v>
+        <v>430.6000061035156</v>
       </c>
       <c r="C60">
-        <v>419.3200073242188</v>
+        <v>428.7999877929688</v>
       </c>
       <c r="D60">
-        <v>421.9700012207031</v>
+        <v>430.4299926757812</v>
       </c>
       <c r="E60">
-        <v>419.2508544921875</v>
+        <v>429.0554504394531</v>
       </c>
       <c r="F60">
-        <v>90949700</v>
+        <v>53441000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>417.0899963378906</v>
+        <v>431.6700134277344</v>
       </c>
       <c r="B61">
-        <v>417.8299865722656</v>
+        <v>434.1000061035156</v>
       </c>
       <c r="C61">
-        <v>414.7000122070312</v>
+        <v>430.5199890136719</v>
       </c>
       <c r="D61">
-        <v>414.9200134277344</v>
+        <v>433.7200012207031</v>
       </c>
       <c r="E61">
-        <v>413.5950012207031</v>
+        <v>432.3349304199219</v>
       </c>
       <c r="F61">
-        <v>118676300</v>
+        <v>57697700</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>416.7999877929688</v>
+        <v>433.7799987792969</v>
       </c>
       <c r="B62">
-        <v>421.0599975585938</v>
+        <v>434.010009765625</v>
       </c>
       <c r="C62">
-        <v>415.9299926757812</v>
+        <v>430.010009765625</v>
       </c>
       <c r="D62">
-        <v>420.8599853515625</v>
+        <v>432.9299926757812</v>
       </c>
       <c r="E62">
-        <v>419.5159912109375</v>
+        <v>431.5474548339844</v>
       </c>
       <c r="F62">
-        <v>72822000</v>
+        <v>68710400</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>420.8500061035156</v>
+        <v>433.6600036621094</v>
       </c>
       <c r="B63">
-        <v>424</v>
+        <v>434.760009765625</v>
       </c>
       <c r="C63">
-        <v>420.0799865722656</v>
+        <v>431.510009765625</v>
       </c>
       <c r="D63">
-        <v>423.1099853515625</v>
+        <v>434.4599914550781</v>
       </c>
       <c r="E63">
-        <v>421.7588195800781</v>
+        <v>433.0725708007812</v>
       </c>
       <c r="F63">
-        <v>57700300</v>
+        <v>63549500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>423.1900024414062</v>
+        <v>428.7799987792969</v>
       </c>
       <c r="B64">
-        <v>424.0499877929688</v>
+        <v>431.7300109863281</v>
       </c>
       <c r="C64">
-        <v>422.510009765625</v>
+        <v>427.5199890136719</v>
       </c>
       <c r="D64">
-        <v>422.6000061035156</v>
+        <v>430.9200134277344</v>
       </c>
       <c r="E64">
-        <v>421.2504577636719</v>
+        <v>429.5438842773438</v>
       </c>
       <c r="F64">
-        <v>49445400</v>
+        <v>97595200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>424.8900146484375</v>
+        <v>432.5299987792969</v>
       </c>
       <c r="B65">
-        <v>425.5499877929688</v>
+        <v>435.8399963378906</v>
       </c>
       <c r="C65">
-        <v>424.6199951171875</v>
+        <v>430.7099914550781</v>
       </c>
       <c r="D65">
-        <v>425.1000061035156</v>
+        <v>435.5199890136719</v>
       </c>
       <c r="E65">
-        <v>423.7424621582031</v>
+        <v>434.1291809082031</v>
       </c>
       <c r="F65">
-        <v>45110300</v>
+        <v>76238600</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>425.8999938964844</v>
+        <v>435.4299926757812</v>
       </c>
       <c r="B66">
-        <v>427.0899963378906</v>
+        <v>437.3500061035156</v>
       </c>
       <c r="C66">
-        <v>425.5499877929688</v>
+        <v>434.9700012207031</v>
       </c>
       <c r="D66">
-        <v>426.6099853515625</v>
+        <v>437.0799865722656</v>
       </c>
       <c r="E66">
-        <v>425.2476196289062</v>
+        <v>435.6842041015625</v>
       </c>
       <c r="F66">
-        <v>58129500</v>
+        <v>52889600</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>427.1700134277344</v>
+        <v>436.239990234375</v>
       </c>
       <c r="B67">
-        <v>427.6499938964844</v>
+        <v>437.8399963378906</v>
       </c>
       <c r="C67">
-        <v>425.8900146484375</v>
+        <v>435.3099975585938</v>
       </c>
       <c r="D67">
-        <v>427.4700012207031</v>
+        <v>435.5899963378906</v>
       </c>
       <c r="E67">
-        <v>426.1048889160156</v>
+        <v>434.198974609375</v>
       </c>
       <c r="F67">
-        <v>53159600</v>
+        <v>52911300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>427.8800048828125</v>
+        <v>437.3999938964844</v>
       </c>
       <c r="B68">
-        <v>428.5599975585938</v>
+        <v>437.9200134277344</v>
       </c>
       <c r="C68">
-        <v>427.1300048828125</v>
+        <v>434.9100036621094</v>
       </c>
       <c r="D68">
-        <v>427.7000122070312</v>
+        <v>436.239990234375</v>
       </c>
       <c r="E68">
-        <v>426.3341674804688</v>
+        <v>434.8468933105469</v>
       </c>
       <c r="F68">
-        <v>35970500</v>
+        <v>64130400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>427.2099914550781</v>
+        <v>434.8099975585938</v>
       </c>
       <c r="B69">
-        <v>428.7799987792969</v>
+        <v>435.5299987792969</v>
       </c>
       <c r="C69">
-        <v>427.1799926757812</v>
+        <v>432.7200012207031</v>
       </c>
       <c r="D69">
-        <v>428.0599975585938</v>
+        <v>434.75</v>
       </c>
       <c r="E69">
-        <v>426.6930236816406</v>
+        <v>433.3616638183594</v>
       </c>
       <c r="F69">
-        <v>64827900</v>
+        <v>55126400</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>428.8699951171875</v>
+        <v>436.010009765625</v>
       </c>
       <c r="B70">
-        <v>430.6000061035156</v>
+        <v>436.0599975585938</v>
       </c>
       <c r="C70">
-        <v>428.7999877929688</v>
+        <v>430.9200134277344</v>
       </c>
       <c r="D70">
-        <v>430.4299926757812</v>
+        <v>431.3399963378906</v>
       </c>
       <c r="E70">
-        <v>429.0554504394531</v>
+        <v>429.9625244140625</v>
       </c>
       <c r="F70">
-        <v>53441000</v>
+        <v>75874700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>431.6700134277344</v>
+        <v>426.1900024414062</v>
       </c>
       <c r="B71">
-        <v>434.1000061035156</v>
+        <v>431.4100036621094</v>
       </c>
       <c r="C71">
-        <v>430.5199890136719</v>
+        <v>421.9700012207031</v>
       </c>
       <c r="D71">
-        <v>433.7200012207031</v>
+        <v>424.9700012207031</v>
       </c>
       <c r="E71">
-        <v>432.3349304199219</v>
+        <v>423.6128845214844</v>
       </c>
       <c r="F71">
-        <v>57697700</v>
+        <v>147987000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>433.7799987792969</v>
+        <v>425.6799926757812</v>
       </c>
       <c r="B72">
-        <v>434.010009765625</v>
+        <v>432.4200134277344</v>
       </c>
       <c r="C72">
-        <v>430.010009765625</v>
+        <v>424.8299865722656</v>
       </c>
       <c r="D72">
-        <v>432.9299926757812</v>
+        <v>431.0599975585938</v>
       </c>
       <c r="E72">
-        <v>431.5474548339844</v>
+        <v>429.6834411621094</v>
       </c>
       <c r="F72">
-        <v>68710400</v>
+        <v>99608200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>433.6600036621094</v>
+        <v>432.3399963378906</v>
       </c>
       <c r="B73">
-        <v>434.760009765625</v>
+        <v>434.7000122070312</v>
       </c>
       <c r="C73">
-        <v>431.510009765625</v>
+        <v>431.010009765625</v>
       </c>
       <c r="D73">
-        <v>434.4599914550781</v>
+        <v>434.5499877929688</v>
       </c>
       <c r="E73">
-        <v>433.0725708007812</v>
+        <v>433.1622924804688</v>
       </c>
       <c r="F73">
-        <v>63549500</v>
+        <v>64724400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>428.7799987792969</v>
+        <v>434.739990234375</v>
       </c>
       <c r="B74">
-        <v>431.7300109863281</v>
+        <v>435.7200012207031</v>
       </c>
       <c r="C74">
-        <v>427.5199890136719</v>
+        <v>433.6900024414062</v>
       </c>
       <c r="D74">
-        <v>430.9200134277344</v>
+        <v>435.4599914550781</v>
       </c>
       <c r="E74">
-        <v>429.5438842773438</v>
+        <v>434.0693664550781</v>
       </c>
       <c r="F74">
-        <v>97595200</v>
+        <v>47878500</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>432.5299987792969</v>
+        <v>437.5199890136719</v>
       </c>
       <c r="B75">
-        <v>435.8399963378906</v>
+        <v>440.2999877929688</v>
       </c>
       <c r="C75">
-        <v>430.7099914550781</v>
+        <v>436.7900085449219</v>
       </c>
       <c r="D75">
-        <v>435.5199890136719</v>
+        <v>439.9400024414062</v>
       </c>
       <c r="E75">
-        <v>434.1291809082031</v>
+        <v>438.5350952148438</v>
       </c>
       <c r="F75">
-        <v>76238600</v>
+        <v>63766600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>435.4299926757812</v>
+        <v>439.3099975585938</v>
       </c>
       <c r="B76">
-        <v>437.3500061035156</v>
+        <v>441.0299987792969</v>
       </c>
       <c r="C76">
-        <v>434.9700012207031</v>
+        <v>439.260009765625</v>
       </c>
       <c r="D76">
-        <v>437.0799865722656</v>
+        <v>441.0199890136719</v>
       </c>
       <c r="E76">
-        <v>435.6842041015625</v>
+        <v>439.6116333007812</v>
       </c>
       <c r="F76">
-        <v>52889600</v>
+        <v>43719200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>436.239990234375</v>
+        <v>439.9100036621094</v>
       </c>
       <c r="B77">
-        <v>437.8399963378906</v>
+        <v>439.9400024414062</v>
       </c>
       <c r="C77">
-        <v>435.3099975585938</v>
+        <v>435.989990234375</v>
       </c>
       <c r="D77">
-        <v>435.5899963378906</v>
+        <v>439.010009765625</v>
       </c>
       <c r="E77">
-        <v>434.198974609375</v>
+        <v>437.6080627441406</v>
       </c>
       <c r="F77">
-        <v>52911300</v>
+        <v>67397100</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>437.3999938964844</v>
+        <v>439.6799926757812</v>
       </c>
       <c r="B78">
-        <v>437.9200134277344</v>
+        <v>440.2999877929688</v>
       </c>
       <c r="C78">
-        <v>434.9100036621094</v>
+        <v>437.3099975585938</v>
       </c>
       <c r="D78">
-        <v>436.239990234375</v>
+        <v>438.8299865722656</v>
       </c>
       <c r="E78">
-        <v>434.8468933105469</v>
+        <v>437.4286193847656</v>
       </c>
       <c r="F78">
-        <v>64130400</v>
+        <v>52472400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>434.8099975585938</v>
+        <v>439.8200073242188</v>
       </c>
       <c r="B79">
-        <v>435.5299987792969</v>
+        <v>441.7999877929688</v>
       </c>
       <c r="C79">
-        <v>432.7200012207031</v>
+        <v>439.8099975585938</v>
       </c>
       <c r="D79">
-        <v>434.75</v>
+        <v>440.6499938964844</v>
       </c>
       <c r="E79">
-        <v>433.3616638183594</v>
+        <v>439.2427978515625</v>
       </c>
       <c r="F79">
-        <v>55126400</v>
+        <v>47435300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>436.010009765625</v>
+        <v>437.9100036621094</v>
       </c>
       <c r="B80">
-        <v>436.0599975585938</v>
+        <v>440.0599975585938</v>
       </c>
       <c r="C80">
-        <v>430.9200134277344</v>
+        <v>437.7699890136719</v>
       </c>
       <c r="D80">
-        <v>431.3399963378906</v>
+        <v>438.510009765625</v>
       </c>
       <c r="E80">
-        <v>429.9625244140625</v>
+        <v>437.1096496582031</v>
       </c>
       <c r="F80">
-        <v>75874700</v>
+        <v>68890600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>426.1900024414062</v>
+        <v>440.3399963378906</v>
       </c>
       <c r="B81">
-        <v>431.4100036621094</v>
+        <v>440.9299926757812</v>
       </c>
       <c r="C81">
-        <v>421.9700012207031</v>
+        <v>437.2099914550781</v>
       </c>
       <c r="D81">
-        <v>424.9700012207031</v>
+        <v>437.5899963378906</v>
       </c>
       <c r="E81">
-        <v>423.6128845214844</v>
+        <v>436.1925659179688</v>
       </c>
       <c r="F81">
-        <v>147987000</v>
+        <v>58783300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>425.6799926757812</v>
+        <v>438.4400024414062</v>
       </c>
       <c r="B82">
-        <v>432.4200134277344</v>
+        <v>441.2799987792969</v>
       </c>
       <c r="C82">
-        <v>424.8299865722656</v>
+        <v>436.1000061035156</v>
       </c>
       <c r="D82">
-        <v>431.0599975585938</v>
+        <v>441.1499938964844</v>
       </c>
       <c r="E82">
-        <v>429.6834411621094</v>
+        <v>439.7412109375</v>
       </c>
       <c r="F82">
-        <v>99608200</v>
+        <v>58053900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>432.3399963378906</v>
+        <v>439.7799987792969</v>
       </c>
       <c r="B83">
-        <v>434.7000122070312</v>
+        <v>441.1199951171875</v>
       </c>
       <c r="C83">
-        <v>431.010009765625</v>
+        <v>438.7300109863281</v>
       </c>
       <c r="D83">
-        <v>434.5499877929688</v>
+        <v>438.9800109863281</v>
       </c>
       <c r="E83">
-        <v>433.1622924804688</v>
+        <v>437.5781555175781</v>
       </c>
       <c r="F83">
-        <v>64724400</v>
+        <v>46732200</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>434.739990234375</v>
+        <v>440.2200012207031</v>
       </c>
       <c r="B84">
-        <v>435.7200012207031</v>
+        <v>441.8500061035156</v>
       </c>
       <c r="C84">
-        <v>433.6900024414062</v>
+        <v>439.8800048828125</v>
       </c>
       <c r="D84">
-        <v>435.4599914550781</v>
+        <v>441.760009765625</v>
       </c>
       <c r="E84">
-        <v>434.0693664550781</v>
+        <v>440.3492736816406</v>
       </c>
       <c r="F84">
-        <v>47878500</v>
+        <v>38969700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>437.5199890136719</v>
+        <v>442.1000061035156</v>
       </c>
       <c r="B85">
-        <v>440.2999877929688</v>
+        <v>442.9400024414062</v>
       </c>
       <c r="C85">
-        <v>436.7900085449219</v>
+        <v>441.7999877929688</v>
       </c>
       <c r="D85">
-        <v>439.9400024414062</v>
+        <v>442.489990234375</v>
       </c>
       <c r="E85">
-        <v>438.5350952148438</v>
+        <v>441.0769348144531</v>
       </c>
       <c r="F85">
-        <v>63766600</v>
+        <v>46864100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>439.3099975585938</v>
+        <v>442.4599914550781</v>
       </c>
       <c r="B86">
-        <v>441.0299987792969</v>
+        <v>442.7999877929688</v>
       </c>
       <c r="C86">
-        <v>439.260009765625</v>
+        <v>441.3099975585938</v>
       </c>
       <c r="D86">
-        <v>441.0199890136719</v>
+        <v>442.1300048828125</v>
       </c>
       <c r="E86">
-        <v>439.6116333007812</v>
+        <v>440.7180786132812</v>
       </c>
       <c r="F86">
-        <v>43719200</v>
+        <v>41222600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>439.9100036621094</v>
+        <v>442.6099853515625</v>
       </c>
       <c r="B87">
-        <v>439.9400024414062</v>
+        <v>443.4400024414062</v>
       </c>
       <c r="C87">
-        <v>435.989990234375</v>
+        <v>441.8800048828125</v>
       </c>
       <c r="D87">
-        <v>439.010009765625</v>
+        <v>442.6799926757812</v>
       </c>
       <c r="E87">
-        <v>437.6080627441406</v>
+        <v>441.2663269042969</v>
       </c>
       <c r="F87">
-        <v>67397100</v>
+        <v>43339300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>439.6799926757812</v>
+        <v>443.8200073242188</v>
       </c>
       <c r="B88">
-        <v>440.2999877929688</v>
+        <v>443.8800048828125</v>
       </c>
       <c r="C88">
-        <v>437.3099975585938</v>
+        <v>442.6199951171875</v>
       </c>
       <c r="D88">
-        <v>438.8299865722656</v>
+        <v>443.7799987792969</v>
       </c>
       <c r="E88">
-        <v>437.4286193847656</v>
+        <v>442.3628234863281</v>
       </c>
       <c r="F88">
-        <v>52472400</v>
+        <v>44034300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>439.8200073242188</v>
+        <v>443.6199951171875</v>
       </c>
       <c r="B89">
-        <v>441.7999877929688</v>
+        <v>445.260009765625</v>
       </c>
       <c r="C89">
-        <v>439.8099975585938</v>
+        <v>442.6600036621094</v>
       </c>
       <c r="D89">
-        <v>440.6499938964844</v>
+        <v>445.1099853515625</v>
       </c>
       <c r="E89">
-        <v>439.2427978515625</v>
+        <v>443.6885681152344</v>
       </c>
       <c r="F89">
-        <v>47435300</v>
+        <v>38909400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>437.9100036621094</v>
+        <v>445.5899963378906</v>
       </c>
       <c r="B90">
-        <v>440.0599975585938</v>
+        <v>445.9400024414062</v>
       </c>
       <c r="C90">
-        <v>437.7699890136719</v>
+        <v>445.0700073242188</v>
       </c>
       <c r="D90">
-        <v>438.510009765625</v>
+        <v>445.9200134277344</v>
       </c>
       <c r="E90">
-        <v>437.1096496582031</v>
+        <v>444.4960021972656</v>
       </c>
       <c r="F90">
-        <v>68890600</v>
+        <v>39388300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>440.3399963378906</v>
+        <v>444.5299987792969</v>
       </c>
       <c r="B91">
-        <v>440.9299926757812</v>
+        <v>447.1099853515625</v>
       </c>
       <c r="C91">
-        <v>437.2099914550781</v>
+        <v>442.8699951171875</v>
       </c>
       <c r="D91">
-        <v>437.5899963378906</v>
+        <v>446.9700012207031</v>
       </c>
       <c r="E91">
-        <v>436.1925659179688</v>
+        <v>445.5426330566406</v>
       </c>
       <c r="F91">
-        <v>58783300</v>
+        <v>73740000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>438.4400024414062</v>
+        <v>444.239990234375</v>
       </c>
       <c r="B92">
-        <v>441.2799987792969</v>
+        <v>444.9599914550781</v>
       </c>
       <c r="C92">
-        <v>436.1000061035156</v>
+        <v>440.8500061035156</v>
       </c>
       <c r="D92">
-        <v>441.1499938964844</v>
+        <v>444.0400085449219</v>
       </c>
       <c r="E92">
-        <v>439.7412109375</v>
+        <v>442.6220092773438</v>
       </c>
       <c r="F92">
-        <v>58053900</v>
+        <v>92673900</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>439.7799987792969</v>
+        <v>442.9599914550781</v>
       </c>
       <c r="B93">
-        <v>441.1199951171875</v>
+        <v>444.6300048828125</v>
       </c>
       <c r="C93">
-        <v>438.7300109863281</v>
+        <v>438.9200134277344</v>
       </c>
       <c r="D93">
-        <v>438.9800109863281</v>
+        <v>439.1799926757812</v>
       </c>
       <c r="E93">
-        <v>437.5781555175781</v>
+        <v>437.7774963378906</v>
       </c>
       <c r="F93">
-        <v>46732200</v>
+        <v>89351900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>440.2200012207031</v>
+        <v>436.2699890136719</v>
       </c>
       <c r="B94">
-        <v>441.8500061035156</v>
+        <v>441.1400146484375</v>
       </c>
       <c r="C94">
-        <v>439.8800048828125</v>
+        <v>436.1199951171875</v>
       </c>
       <c r="D94">
-        <v>441.760009765625</v>
+        <v>439.8599853515625</v>
       </c>
       <c r="E94">
-        <v>440.3492736816406</v>
+        <v>438.455322265625</v>
       </c>
       <c r="F94">
-        <v>38969700</v>
+        <v>92812200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>442.1000061035156</v>
+        <v>440.2300109863281</v>
       </c>
       <c r="B95">
-        <v>442.9400024414062</v>
+        <v>443.7099914550781</v>
       </c>
       <c r="C95">
-        <v>441.7999877929688</v>
+        <v>439.7099914550781</v>
       </c>
       <c r="D95">
-        <v>442.489990234375</v>
+        <v>443.3599853515625</v>
       </c>
       <c r="E95">
-        <v>441.0769348144531</v>
+        <v>441.9441528320312</v>
       </c>
       <c r="F95">
-        <v>46864100</v>
+        <v>71975900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>442.4599914550781</v>
+        <v>445.1600036621094</v>
       </c>
       <c r="B96">
-        <v>442.7999877929688</v>
+        <v>448.2300109863281</v>
       </c>
       <c r="C96">
-        <v>441.3099975585938</v>
+        <v>443.4400024414062</v>
       </c>
       <c r="D96">
-        <v>442.1300048828125</v>
+        <v>447.260009765625</v>
       </c>
       <c r="E96">
-        <v>440.7180786132812</v>
+        <v>445.8317260742188</v>
       </c>
       <c r="F96">
-        <v>41222600</v>
+        <v>54973000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>442.6099853515625</v>
+        <v>447.9700012207031</v>
       </c>
       <c r="B97">
-        <v>443.4400024414062</v>
+        <v>448.5400085449219</v>
       </c>
       <c r="C97">
-        <v>441.8800048828125</v>
+        <v>447.4200134277344</v>
       </c>
       <c r="D97">
-        <v>442.6799926757812</v>
+        <v>447.9700012207031</v>
       </c>
       <c r="E97">
-        <v>441.2663269042969</v>
+        <v>446.5394287109375</v>
       </c>
       <c r="F97">
-        <v>43339300</v>
+        <v>38744700</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>443.8200073242188</v>
+        <v>448.1700134277344</v>
       </c>
       <c r="B98">
-        <v>443.8800048828125</v>
+        <v>449.4599914550781</v>
       </c>
       <c r="C98">
-        <v>442.6199951171875</v>
+        <v>447.7699890136719</v>
       </c>
       <c r="D98">
-        <v>443.7799987792969</v>
+        <v>448.9100036621094</v>
       </c>
       <c r="E98">
-        <v>442.3628234863281</v>
+        <v>447.4764404296875</v>
       </c>
       <c r="F98">
-        <v>44034300</v>
+        <v>40529700</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>443.6199951171875</v>
+        <v>448.6099853515625</v>
       </c>
       <c r="B99">
-        <v>445.260009765625</v>
+        <v>448.8599853515625</v>
       </c>
       <c r="C99">
-        <v>442.6600036621094</v>
+        <v>446.1600036621094</v>
       </c>
       <c r="D99">
-        <v>445.1099853515625</v>
+        <v>446.260009765625</v>
       </c>
       <c r="E99">
-        <v>443.6885681152344</v>
+        <v>444.8348999023438</v>
       </c>
       <c r="F99">
-        <v>38909400</v>
+        <v>57829600</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>445.5899963378906</v>
+        <v>447.1199951171875</v>
       </c>
       <c r="B100">
-        <v>445.9400024414062</v>
+        <v>450.6499938964844</v>
       </c>
       <c r="C100">
-        <v>445.0700073242188</v>
+        <v>447.0599975585938</v>
       </c>
       <c r="D100">
-        <v>445.9200134277344</v>
+        <v>450.25</v>
       </c>
       <c r="E100">
-        <v>444.4960021972656</v>
+        <v>448.8121643066406</v>
       </c>
       <c r="F100">
-        <v>39388300</v>
+        <v>77201900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>444.5299987792969</v>
+        <v>450.9700012207031</v>
       </c>
       <c r="B101">
-        <v>447.1099853515625</v>
+        <v>453.0700073242188</v>
       </c>
       <c r="C101">
-        <v>442.8699951171875</v>
+        <v>450.7099914550781</v>
       </c>
       <c r="D101">
-        <v>446.9700012207031</v>
+        <v>452.2300109863281</v>
       </c>
       <c r="E101">
-        <v>445.5426330566406</v>
+        <v>450.7858276367188</v>
       </c>
       <c r="F101">
-        <v>73740000</v>
+        <v>48357400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>444.239990234375</v>
+        <v>452.1300048828125</v>
       </c>
       <c r="B102">
-        <v>444.9599914550781</v>
+        <v>452.489990234375</v>
       </c>
       <c r="C102">
-        <v>440.8500061035156</v>
+        <v>450.9200134277344</v>
       </c>
       <c r="D102">
-        <v>444.0400085449219</v>
+        <v>451.5599975585938</v>
       </c>
       <c r="E102">
-        <v>442.6220092773438</v>
+        <v>450.1179809570312</v>
       </c>
       <c r="F102">
-        <v>92673900</v>
+        <v>59300200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>442.9599914550781</v>
+        <v>452.5599975585938</v>
       </c>
       <c r="B103">
-        <v>444.6300048828125</v>
+        <v>453.1099853515625</v>
       </c>
       <c r="C103">
-        <v>438.9200134277344</v>
+        <v>451.5499877929688</v>
       </c>
       <c r="D103">
-        <v>439.1799926757812</v>
+        <v>451.7999877929688</v>
       </c>
       <c r="E103">
-        <v>437.7774963378906</v>
+        <v>450.357177734375</v>
       </c>
       <c r="F103">
-        <v>89351900</v>
+        <v>48721400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>436.2699890136719</v>
+        <v>453.3200073242188</v>
       </c>
       <c r="B104">
-        <v>441.1400146484375</v>
+        <v>454.0499877929688</v>
       </c>
       <c r="C104">
-        <v>436.1199951171875</v>
+        <v>451.9100036621094</v>
       </c>
       <c r="D104">
-        <v>439.8599853515625</v>
+        <v>453.1900024414062</v>
       </c>
       <c r="E104">
-        <v>438.455322265625</v>
+        <v>451.7427673339844</v>
       </c>
       <c r="F104">
-        <v>92812200</v>
+        <v>42501000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>440.2300109863281</v>
+        <v>451.9800109863281</v>
       </c>
       <c r="B105">
-        <v>443.7099914550781</v>
+        <v>453.6300048828125</v>
       </c>
       <c r="C105">
-        <v>439.7099914550781</v>
+        <v>451.5499877929688</v>
       </c>
       <c r="D105">
-        <v>443.3599853515625</v>
+        <v>453.0799865722656</v>
       </c>
       <c r="E105">
-        <v>441.9441528320312</v>
+        <v>451.6331176757812</v>
       </c>
       <c r="F105">
-        <v>71975900</v>
+        <v>47170500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>445.1600036621094</v>
+        <v>452.7099914550781</v>
       </c>
       <c r="B106">
-        <v>448.2300109863281</v>
+        <v>452.8099975585938</v>
       </c>
       <c r="C106">
-        <v>443.4400024414062</v>
+        <v>450.739990234375</v>
       </c>
       <c r="D106">
-        <v>447.260009765625</v>
+        <v>451.4599914550781</v>
       </c>
       <c r="E106">
-        <v>445.8317260742188</v>
+        <v>450.0182800292969</v>
       </c>
       <c r="F106">
-        <v>54973000</v>
+        <v>51671500</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>447.9700012207031</v>
+        <v>450.8900146484375</v>
       </c>
       <c r="B107">
-        <v>448.5400085449219</v>
+        <v>451.6700134277344</v>
       </c>
       <c r="C107">
-        <v>447.4200134277344</v>
+        <v>448.8599853515625</v>
       </c>
       <c r="D107">
-        <v>447.9700012207031</v>
+        <v>450.9100036621094</v>
       </c>
       <c r="E107">
-        <v>446.5394287109375</v>
+        <v>449.4700622558594</v>
       </c>
       <c r="F107">
-        <v>38744700</v>
+        <v>56181900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>448.1700134277344</v>
+        <v>450.7000122070312</v>
       </c>
       <c r="B108">
-        <v>449.4599914550781</v>
+        <v>452.5700073242188</v>
       </c>
       <c r="C108">
-        <v>447.7699890136719</v>
+        <v>448.7200012207031</v>
       </c>
       <c r="D108">
-        <v>448.9100036621094</v>
+        <v>448.9800109863281</v>
       </c>
       <c r="E108">
-        <v>447.4764404296875</v>
+        <v>447.5462341308594</v>
       </c>
       <c r="F108">
-        <v>40529700</v>
+        <v>57970400</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>448.6099853515625</v>
+        <v>451.0400085449219</v>
       </c>
       <c r="B109">
-        <v>448.8599853515625</v>
+        <v>451.489990234375</v>
       </c>
       <c r="C109">
-        <v>446.1600036621094</v>
+        <v>445.3099975585938</v>
       </c>
       <c r="D109">
-        <v>446.260009765625</v>
+        <v>445.4400024414062</v>
       </c>
       <c r="E109">
-        <v>444.8348999023438</v>
+        <v>444.0175170898438</v>
       </c>
       <c r="F109">
-        <v>57829600</v>
+        <v>89848000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>447.1199951171875</v>
+        <v>448.6400146484375</v>
       </c>
       <c r="B110">
-        <v>450.6499938964844</v>
+        <v>448.9200134277344</v>
       </c>
       <c r="C110">
-        <v>447.0599975585938</v>
+        <v>444.1099853515625</v>
       </c>
       <c r="D110">
-        <v>450.25</v>
+        <v>446.5799865722656</v>
       </c>
       <c r="E110">
-        <v>448.8121643066406</v>
+        <v>445.1538696289062</v>
       </c>
       <c r="F110">
-        <v>77201900</v>
+        <v>83738600</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>450.9700012207031</v>
+        <v>448.1199951171875</v>
       </c>
       <c r="B111">
-        <v>453.0700073242188</v>
+        <v>448.3399963378906</v>
       </c>
       <c r="C111">
-        <v>450.7099914550781</v>
+        <v>443.2200012207031</v>
       </c>
       <c r="D111">
-        <v>452.2300109863281</v>
+        <v>444.1700134277344</v>
       </c>
       <c r="E111">
-        <v>450.7858276367188</v>
+        <v>442.7515869140625</v>
       </c>
       <c r="F111">
-        <v>48357400</v>
+        <v>78197100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>452.1300048828125</v>
+        <v>444.6199951171875</v>
       </c>
       <c r="B112">
-        <v>452.489990234375</v>
+        <v>448.4100036621094</v>
       </c>
       <c r="C112">
-        <v>450.9200134277344</v>
+        <v>443.4400024414062</v>
       </c>
       <c r="D112">
-        <v>451.5599975585938</v>
+        <v>447.8800048828125</v>
       </c>
       <c r="E112">
-        <v>450.1179809570312</v>
+        <v>446.4497375488281</v>
       </c>
       <c r="F112">
-        <v>59300200</v>
+        <v>78792200</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>452.5599975585938</v>
+        <v>447.3200073242188</v>
       </c>
       <c r="B113">
-        <v>453.1099853515625</v>
+        <v>448.3599853515625</v>
       </c>
       <c r="C113">
-        <v>451.5499877929688</v>
+        <v>444.0199890136719</v>
       </c>
       <c r="D113">
-        <v>451.7999877929688</v>
+        <v>447.1700134277344</v>
       </c>
       <c r="E113">
-        <v>450.357177734375</v>
+        <v>445.7420043945312</v>
       </c>
       <c r="F113">
-        <v>48721400</v>
+        <v>77786700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>453.3200073242188</v>
+        <v>444.9200134277344</v>
       </c>
       <c r="B114">
-        <v>454.0499877929688</v>
+        <v>445.3699951171875</v>
       </c>
       <c r="C114">
-        <v>451.9100036621094</v>
+        <v>441.0199890136719</v>
       </c>
       <c r="D114">
-        <v>453.1900024414062</v>
+        <v>441.3999938964844</v>
       </c>
       <c r="E114">
-        <v>451.7427673339844</v>
+        <v>441.3999938964844</v>
       </c>
       <c r="F114">
-        <v>42501000</v>
+        <v>118425000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>451.9800109863281</v>
+        <v>434.8800048828125</v>
       </c>
       <c r="B115">
-        <v>453.6300048828125</v>
+        <v>436.5599975585938</v>
       </c>
       <c r="C115">
-        <v>451.5499877929688</v>
+        <v>428.8599853515625</v>
       </c>
       <c r="D115">
-        <v>453.0799865722656</v>
+        <v>434.0400085449219</v>
       </c>
       <c r="E115">
-        <v>451.6331176757812</v>
+        <v>434.0400085449219</v>
       </c>
       <c r="F115">
-        <v>47170500</v>
+        <v>166445500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>452.7099914550781</v>
+        <v>436.5299987792969</v>
       </c>
       <c r="B116">
-        <v>452.8099975585938</v>
+        <v>437.9100036621094</v>
       </c>
       <c r="C116">
-        <v>450.739990234375</v>
+        <v>433.0700073242188</v>
       </c>
       <c r="D116">
-        <v>451.4599914550781</v>
+        <v>433.6300048828125</v>
       </c>
       <c r="E116">
-        <v>450.0182800292969</v>
+        <v>433.6300048828125</v>
       </c>
       <c r="F116">
-        <v>51671500</v>
+        <v>92526100</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>450.8900146484375</v>
+        <v>436.0499877929688</v>
       </c>
       <c r="B117">
-        <v>451.6700134277344</v>
+        <v>440.0299987792969</v>
       </c>
       <c r="C117">
-        <v>448.8599853515625</v>
+        <v>433.75</v>
       </c>
       <c r="D117">
-        <v>450.9100036621094</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="E117">
-        <v>449.4700622558594</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="F117">
-        <v>56181900</v>
+        <v>102350100</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>450.7000122070312</v>
+        <v>439.8500061035156</v>
       </c>
       <c r="B118">
-        <v>452.5700073242188</v>
+        <v>444.8900146484375</v>
       </c>
       <c r="C118">
-        <v>448.7200012207031</v>
+        <v>439.6000061035156</v>
       </c>
       <c r="D118">
-        <v>448.9800109863281</v>
+        <v>443.1799926757812</v>
       </c>
       <c r="E118">
-        <v>447.5462341308594</v>
+        <v>443.1799926757812</v>
       </c>
       <c r="F118">
-        <v>57970400</v>
+        <v>76396000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>451.0400085449219</v>
+        <v>441.4400024414062</v>
       </c>
       <c r="B119">
-        <v>451.489990234375</v>
+        <v>444.6700134277344</v>
       </c>
       <c r="C119">
-        <v>445.3099975585938</v>
+        <v>441.2099914550781</v>
       </c>
       <c r="D119">
-        <v>445.4400024414062</v>
+        <v>443.9100036621094</v>
       </c>
       <c r="E119">
-        <v>444.0175170898438</v>
+        <v>443.9100036621094</v>
       </c>
       <c r="F119">
-        <v>89848000</v>
+        <v>62094800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>448.6400146484375</v>
+        <v>442.8099975585938</v>
       </c>
       <c r="B120">
-        <v>448.9200134277344</v>
+        <v>444.0499877929688</v>
       </c>
       <c r="C120">
-        <v>444.1099853515625</v>
+        <v>441.8999938964844</v>
       </c>
       <c r="D120">
-        <v>446.5799865722656</v>
+        <v>442.6400146484375</v>
       </c>
       <c r="E120">
-        <v>445.1538696289062</v>
+        <v>442.6400146484375</v>
       </c>
       <c r="F120">
-        <v>83738600</v>
+        <v>61371100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>448.1199951171875</v>
+        <v>439.6900024414062</v>
       </c>
       <c r="B121">
-        <v>448.3399963378906</v>
+        <v>440.0400085449219</v>
       </c>
       <c r="C121">
-        <v>443.2200012207031</v>
+        <v>432.9400024414062</v>
       </c>
       <c r="D121">
-        <v>444.1700134277344</v>
+        <v>433.7200012207031</v>
       </c>
       <c r="E121">
-        <v>442.7515869140625</v>
+        <v>433.7200012207031</v>
       </c>
       <c r="F121">
-        <v>78197100</v>
+        <v>130436300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>444.6199951171875</v>
+        <v>435.1900024414062</v>
       </c>
       <c r="B122">
-        <v>448.4100036621094</v>
+        <v>437.0400085449219</v>
       </c>
       <c r="C122">
-        <v>443.4400024414062</v>
+        <v>433.8500061035156</v>
       </c>
       <c r="D122">
-        <v>447.8800048828125</v>
+        <v>434.4500122070312</v>
       </c>
       <c r="E122">
-        <v>446.4497375488281</v>
+        <v>434.4500122070312</v>
       </c>
       <c r="F122">
-        <v>78792200</v>
+        <v>82329200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>447.3200073242188</v>
+        <v>436.0199890136719</v>
       </c>
       <c r="B123">
-        <v>448.3599853515625</v>
+        <v>436.7699890136719</v>
       </c>
       <c r="C123">
-        <v>444.0199890136719</v>
+        <v>428.7799987792969</v>
       </c>
       <c r="D123">
-        <v>447.1700134277344</v>
+        <v>429.1400146484375</v>
       </c>
       <c r="E123">
-        <v>445.7420043945312</v>
+        <v>429.1400146484375</v>
       </c>
       <c r="F123">
-        <v>77786700</v>
+        <v>140181200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>444.9200134277344</v>
+        <v>430.9800109863281</v>
       </c>
       <c r="B124">
-        <v>445.3699951171875</v>
+        <v>436.0299987792969</v>
       </c>
       <c r="C124">
-        <v>441.0199890136719</v>
+        <v>427.2300109863281</v>
       </c>
       <c r="D124">
-        <v>441.3999938964844</v>
+        <v>434.239990234375</v>
       </c>
       <c r="E124">
-        <v>441.3999938964844</v>
+        <v>434.239990234375</v>
       </c>
       <c r="F124">
-        <v>118220200</v>
+        <v>129240100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>434.8800048828125</v>
+        <v>433</v>
       </c>
       <c r="B125">
-        <v>436.5599975585938</v>
+        <v>433.9599914550781</v>
       </c>
       <c r="C125">
-        <v>428.8599853515625</v>
+        <v>426.3599853515625</v>
       </c>
       <c r="D125">
-        <v>434.0400085449219</v>
+        <v>428.6400146484375</v>
       </c>
       <c r="E125">
-        <v>434.0400085449219</v>
+        <v>428.6400146484375</v>
       </c>
       <c r="F125">
-        <v>166445500</v>
+        <v>128570000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>436.5299987792969</v>
+        <v>430.239990234375</v>
       </c>
       <c r="B126">
-        <v>437.9100036621094</v>
+        <v>435.489990234375</v>
       </c>
       <c r="C126">
-        <v>433.0700073242188</v>
+        <v>429.3900146484375</v>
       </c>
       <c r="D126">
-        <v>433.6300048828125</v>
+        <v>433.1000061035156</v>
       </c>
       <c r="E126">
-        <v>433.6300048828125</v>
+        <v>433.1000061035156</v>
       </c>
       <c r="F126">
-        <v>92526100</v>
+        <v>90682500</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>436.0499877929688</v>
+        <v>429.2699890136719</v>
       </c>
       <c r="B127">
-        <v>440.0299987792969</v>
+        <v>435.1199951171875</v>
       </c>
       <c r="C127">
-        <v>433.75</v>
+        <v>427.5400085449219</v>
       </c>
       <c r="D127">
-        <v>437.8599853515625</v>
+        <v>434.8999938964844</v>
       </c>
       <c r="E127">
-        <v>437.8599853515625</v>
+        <v>434.8999938964844</v>
       </c>
       <c r="F127">
-        <v>102350100</v>
+        <v>113032200</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>439.8500061035156</v>
+        <v>438.3900146484375</v>
       </c>
       <c r="B128">
-        <v>444.8900146484375</v>
+        <v>441.6799926757812</v>
       </c>
       <c r="C128">
-        <v>439.6000061035156</v>
+        <v>438.2000122070312</v>
       </c>
       <c r="D128">
-        <v>443.1799926757812</v>
+        <v>438.6600036621094</v>
       </c>
       <c r="E128">
-        <v>443.1799926757812</v>
+        <v>438.6600036621094</v>
       </c>
       <c r="F128">
-        <v>76396000</v>
+        <v>72437500</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>441.4400024414062</v>
+        <v>439.4800109863281</v>
       </c>
       <c r="B129">
-        <v>444.6700134277344</v>
+        <v>439.8900146484375</v>
       </c>
       <c r="C129">
-        <v>441.2099914550781</v>
+        <v>437.1900024414062</v>
       </c>
       <c r="D129">
-        <v>443.9100036621094</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="E129">
-        <v>443.9100036621094</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="F129">
-        <v>62025800</v>
+        <v>74492900</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/SPY/SPY_HighLow.xlsx
+++ b/Stocks/SPY/SPY_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>408.3900146484375</v>
+        <v>416.260009765625</v>
       </c>
       <c r="B2">
-        <v>411.6700134277344</v>
+        <v>416.739990234375</v>
       </c>
       <c r="C2">
-        <v>408.260009765625</v>
+        <v>413.7900085449219</v>
       </c>
       <c r="D2">
-        <v>411.489990234375</v>
+        <v>415.2099914550781</v>
       </c>
       <c r="E2">
-        <v>408.83837890625</v>
+        <v>412.5343933105469</v>
       </c>
       <c r="F2">
-        <v>61104600</v>
+        <v>78498500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>410.8500061035156</v>
+        <v>413.9100036621094</v>
       </c>
       <c r="B3">
-        <v>411.9299926757812</v>
+        <v>415.0899963378906</v>
       </c>
       <c r="C3">
-        <v>410.2000122070312</v>
+        <v>410.5899963378906</v>
       </c>
       <c r="D3">
-        <v>411.6400146484375</v>
+        <v>412.1700134277344</v>
       </c>
       <c r="E3">
-        <v>408.9874267578125</v>
+        <v>409.5140075683594</v>
       </c>
       <c r="F3">
-        <v>56704900</v>
+        <v>81851800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>411.5299987792969</v>
+        <v>411.510009765625</v>
       </c>
       <c r="B4">
-        <v>413.5299987792969</v>
+        <v>416.2900085449219</v>
       </c>
       <c r="C4">
-        <v>411.1199951171875</v>
+        <v>411.3599853515625</v>
       </c>
       <c r="D4">
-        <v>412.8599853515625</v>
+        <v>416.0700073242188</v>
       </c>
       <c r="E4">
-        <v>410.1995239257812</v>
+        <v>413.3888549804688</v>
       </c>
       <c r="F4">
-        <v>56551000</v>
+        <v>66793000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>412.8299865722656</v>
+        <v>415.8900146484375</v>
       </c>
       <c r="B5">
-        <v>413.9599914550781</v>
+        <v>416.7799987792969</v>
       </c>
       <c r="C5">
-        <v>410.8699951171875</v>
+        <v>411.1300048828125</v>
       </c>
       <c r="D5">
-        <v>411.4500122070312</v>
+        <v>412.2699890136719</v>
       </c>
       <c r="E5">
-        <v>408.7986755371094</v>
+        <v>409.6133728027344</v>
       </c>
       <c r="F5">
-        <v>61659900</v>
+        <v>97582800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>413.739990234375</v>
+        <v>412.8699951171875</v>
       </c>
       <c r="B6">
-        <v>416.1600036621094</v>
+        <v>418.25</v>
       </c>
       <c r="C6">
-        <v>413.6900024414062</v>
+        <v>412.7900085449219</v>
       </c>
       <c r="D6">
-        <v>415.8699951171875</v>
+        <v>416.739990234375</v>
       </c>
       <c r="E6">
-        <v>413.1901550292969</v>
+        <v>414.0545349121094</v>
       </c>
       <c r="F6">
-        <v>60229800</v>
+        <v>73209200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>417.25</v>
+        <v>417.4400024414062</v>
       </c>
       <c r="B7">
-        <v>417.9100036621094</v>
+        <v>418.2200012207031</v>
       </c>
       <c r="C7">
-        <v>415.7300109863281</v>
+        <v>416.8099975585938</v>
       </c>
       <c r="D7">
-        <v>417.260009765625</v>
+        <v>417.6099853515625</v>
       </c>
       <c r="E7">
-        <v>414.5712280273438</v>
+        <v>414.9189453125</v>
       </c>
       <c r="F7">
-        <v>82037300</v>
+        <v>52182400</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>416.260009765625</v>
+        <v>417.9299926757812</v>
       </c>
       <c r="B8">
-        <v>416.739990234375</v>
+        <v>418.1400146484375</v>
       </c>
       <c r="C8">
-        <v>413.7900085449219</v>
+        <v>416.2999877929688</v>
       </c>
       <c r="D8">
-        <v>415.2099914550781</v>
+        <v>417.5199890136719</v>
       </c>
       <c r="E8">
-        <v>412.5343933105469</v>
+        <v>414.8295288085938</v>
       </c>
       <c r="F8">
-        <v>78498500</v>
+        <v>51303100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>413.9100036621094</v>
+        <v>417.8099975585938</v>
       </c>
       <c r="B9">
-        <v>415.0899963378906</v>
+        <v>419.010009765625</v>
       </c>
       <c r="C9">
-        <v>410.5899963378906</v>
+        <v>416.8999938964844</v>
       </c>
       <c r="D9">
-        <v>412.1700134277344</v>
+        <v>417.3999938964844</v>
       </c>
       <c r="E9">
-        <v>409.5140075683594</v>
+        <v>414.7102966308594</v>
       </c>
       <c r="F9">
-        <v>81851800</v>
+        <v>51238900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>411.510009765625</v>
+        <v>420.3200073242188</v>
       </c>
       <c r="B10">
-        <v>416.2900085449219</v>
+        <v>420.7200012207031</v>
       </c>
       <c r="C10">
-        <v>411.3599853515625</v>
+        <v>416.4400024414062</v>
       </c>
       <c r="D10">
-        <v>416.0700073242188</v>
+        <v>420.0599975585938</v>
       </c>
       <c r="E10">
-        <v>413.3888549804688</v>
+        <v>417.3531494140625</v>
       </c>
       <c r="F10">
-        <v>66793000</v>
+        <v>78544300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>415.8900146484375</v>
+        <v>417.6300048828125</v>
       </c>
       <c r="B11">
-        <v>416.7799987792969</v>
+        <v>418.5400085449219</v>
       </c>
       <c r="C11">
-        <v>411.1300048828125</v>
+        <v>416.3399963378906</v>
       </c>
       <c r="D11">
-        <v>412.2699890136719</v>
+        <v>417.2999877929688</v>
       </c>
       <c r="E11">
-        <v>409.6133422851562</v>
+        <v>414.6109313964844</v>
       </c>
       <c r="F11">
-        <v>97582800</v>
+        <v>85527000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>412.8699951171875</v>
+        <v>419.4299926757812</v>
       </c>
       <c r="B12">
-        <v>418.25</v>
+        <v>419.8399963378906</v>
       </c>
       <c r="C12">
-        <v>412.7900085449219</v>
+        <v>417.6700134277344</v>
       </c>
       <c r="D12">
-        <v>416.739990234375</v>
+        <v>418.2000122070312</v>
       </c>
       <c r="E12">
-        <v>414.0545349121094</v>
+        <v>415.5051574707031</v>
       </c>
       <c r="F12">
-        <v>73209200</v>
+        <v>68128300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>417.4400024414062</v>
+        <v>416.0700073242188</v>
       </c>
       <c r="B13">
-        <v>418.2200012207031</v>
+        <v>416.6000061035156</v>
       </c>
       <c r="C13">
-        <v>416.8099975585938</v>
+        <v>411.6700134277344</v>
       </c>
       <c r="D13">
-        <v>417.6099853515625</v>
+        <v>415.6199951171875</v>
       </c>
       <c r="E13">
-        <v>414.9189147949219</v>
+        <v>412.9417724609375</v>
       </c>
       <c r="F13">
-        <v>52182400</v>
+        <v>101591200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>417.9299926757812</v>
+        <v>417.3800048828125</v>
       </c>
       <c r="B14">
-        <v>418.1400146484375</v>
+        <v>417.6300048828125</v>
       </c>
       <c r="C14">
-        <v>416.2999877929688</v>
+        <v>415.1499938964844</v>
       </c>
       <c r="D14">
-        <v>417.5199890136719</v>
+        <v>415.75</v>
       </c>
       <c r="E14">
-        <v>414.8295288085938</v>
+        <v>413.0709533691406</v>
       </c>
       <c r="F14">
-        <v>51303100</v>
+        <v>60162200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>417.8099975585938</v>
+        <v>415.8299865722656</v>
       </c>
       <c r="B15">
-        <v>419.010009765625</v>
+        <v>419.2099914550781</v>
       </c>
       <c r="C15">
-        <v>416.8999938964844</v>
+        <v>413.6799926757812</v>
       </c>
       <c r="D15">
-        <v>417.3999938964844</v>
+        <v>419.0700073242188</v>
       </c>
       <c r="E15">
-        <v>414.7102966308594</v>
+        <v>416.3695373535156</v>
       </c>
       <c r="F15">
-        <v>51238900</v>
+        <v>74321400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>420.3200073242188</v>
+        <v>419.8900146484375</v>
       </c>
       <c r="B16">
-        <v>420.7200012207031</v>
+        <v>422.8200073242188</v>
       </c>
       <c r="C16">
-        <v>416.4400024414062</v>
+        <v>419.1600036621094</v>
       </c>
       <c r="D16">
-        <v>420.0599975585938</v>
+        <v>422.1199951171875</v>
       </c>
       <c r="E16">
-        <v>417.3531494140625</v>
+        <v>419.3998718261719</v>
       </c>
       <c r="F16">
-        <v>78544300</v>
+        <v>67733800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>417.6300048828125</v>
+        <v>422.5</v>
       </c>
       <c r="B17">
-        <v>418.5400085449219</v>
+        <v>422.739990234375</v>
       </c>
       <c r="C17">
-        <v>416.3399963378906</v>
+        <v>417.8099975585938</v>
       </c>
       <c r="D17">
-        <v>417.2999877929688</v>
+        <v>417.9400024414062</v>
       </c>
       <c r="E17">
-        <v>414.6109313964844</v>
+        <v>415.246826171875</v>
       </c>
       <c r="F17">
-        <v>85527000</v>
+        <v>81852400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>419.4299926757812</v>
+        <v>413.1000061035156</v>
       </c>
       <c r="B18">
-        <v>419.8399963378906</v>
+        <v>415.2699890136719</v>
       </c>
       <c r="C18">
-        <v>417.6700134277344</v>
+        <v>410.0599975585938</v>
       </c>
       <c r="D18">
-        <v>418.2000122070312</v>
+        <v>414.2099914550781</v>
       </c>
       <c r="E18">
-        <v>415.5051574707031</v>
+        <v>411.5408325195312</v>
       </c>
       <c r="F18">
-        <v>68128300</v>
+        <v>116888000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>416.0700073242188</v>
+        <v>411.2300109863281</v>
       </c>
       <c r="B19">
-        <v>416.6000061035156</v>
+        <v>412.5899963378906</v>
       </c>
       <c r="C19">
-        <v>411.6700134277344</v>
+        <v>404</v>
       </c>
       <c r="D19">
-        <v>415.6199951171875</v>
+        <v>405.4100036621094</v>
       </c>
       <c r="E19">
-        <v>412.9417419433594</v>
+        <v>402.7975769042969</v>
       </c>
       <c r="F19">
-        <v>101591200</v>
+        <v>134811000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>417.3800048828125</v>
+        <v>407.0700073242188</v>
       </c>
       <c r="B20">
-        <v>417.6300048828125</v>
+        <v>412.3500061035156</v>
       </c>
       <c r="C20">
-        <v>415.1499938964844</v>
+        <v>407.0199890136719</v>
       </c>
       <c r="D20">
-        <v>415.75</v>
+        <v>410.2799987792969</v>
       </c>
       <c r="E20">
-        <v>413.0709533691406</v>
+        <v>407.6361694335938</v>
       </c>
       <c r="F20">
-        <v>60162200</v>
+        <v>106394000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>415.8299865722656</v>
+        <v>413.2099914550781</v>
       </c>
       <c r="B21">
-        <v>419.2099914550781</v>
+        <v>417.489990234375</v>
       </c>
       <c r="C21">
-        <v>413.6799926757812</v>
+        <v>413.1799926757812</v>
       </c>
       <c r="D21">
-        <v>419.0700073242188</v>
+        <v>416.5799865722656</v>
       </c>
       <c r="E21">
-        <v>416.3695373535156</v>
+        <v>413.8955688476562</v>
       </c>
       <c r="F21">
-        <v>74321400</v>
+        <v>82201600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>419.8900146484375</v>
+        <v>415.3900146484375</v>
       </c>
       <c r="B22">
-        <v>422.8200073242188</v>
+        <v>416.3900146484375</v>
       </c>
       <c r="C22">
-        <v>419.1600036621094</v>
+        <v>413.3599853515625</v>
       </c>
       <c r="D22">
-        <v>422.1199951171875</v>
+        <v>415.5199890136719</v>
       </c>
       <c r="E22">
-        <v>419.3998718261719</v>
+        <v>412.8424072265625</v>
       </c>
       <c r="F22">
-        <v>67733800</v>
+        <v>65129200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>422.5</v>
+        <v>415.7999877929688</v>
       </c>
       <c r="B23">
-        <v>422.739990234375</v>
+        <v>416.0599975585938</v>
       </c>
       <c r="C23">
-        <v>417.8099975585938</v>
+        <v>411.7699890136719</v>
       </c>
       <c r="D23">
-        <v>417.9400024414062</v>
+        <v>411.9400024414062</v>
       </c>
       <c r="E23">
-        <v>415.246826171875</v>
+        <v>409.2854919433594</v>
       </c>
       <c r="F23">
-        <v>81852400</v>
+        <v>59810200</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>413.1000061035156</v>
+        <v>406.9200134277344</v>
       </c>
       <c r="B24">
-        <v>415.2699890136719</v>
+        <v>411.0499877929688</v>
       </c>
       <c r="C24">
-        <v>410.0599975585938</v>
+        <v>405.3299865722656</v>
       </c>
       <c r="D24">
-        <v>414.2099914550781</v>
+        <v>410.8599853515625</v>
       </c>
       <c r="E24">
-        <v>411.5408630371094</v>
+        <v>408.2124328613281</v>
       </c>
       <c r="F24">
-        <v>116888000</v>
+        <v>106467100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>411.2300109863281</v>
+        <v>411.7999877929688</v>
       </c>
       <c r="B25">
-        <v>412.5899963378906</v>
+        <v>416.6300048828125</v>
       </c>
       <c r="C25">
-        <v>404</v>
+        <v>411.6700134277344</v>
       </c>
       <c r="D25">
-        <v>405.4100036621094</v>
+        <v>415.2799987792969</v>
       </c>
       <c r="E25">
-        <v>402.7975769042969</v>
+        <v>412.6039733886719</v>
       </c>
       <c r="F25">
-        <v>134811000</v>
+        <v>78022200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>407.0700073242188</v>
+        <v>416.8699951171875</v>
       </c>
       <c r="B26">
-        <v>412.3500061035156</v>
+        <v>418.2000122070312</v>
       </c>
       <c r="C26">
-        <v>407.0199890136719</v>
+        <v>414.4500122070312</v>
       </c>
       <c r="D26">
-        <v>410.2799987792969</v>
+        <v>414.9400024414062</v>
       </c>
       <c r="E26">
-        <v>407.6361694335938</v>
+        <v>412.2661437988281</v>
       </c>
       <c r="F26">
-        <v>106394000</v>
+        <v>76578700</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>413.2099914550781</v>
+        <v>417.3399963378906</v>
       </c>
       <c r="B27">
-        <v>417.489990234375</v>
+        <v>420.3200073242188</v>
       </c>
       <c r="C27">
-        <v>413.1799926757812</v>
+        <v>417.0799865722656</v>
       </c>
       <c r="D27">
-        <v>416.5799865722656</v>
+        <v>419.1700134277344</v>
       </c>
       <c r="E27">
-        <v>413.8955688476562</v>
+        <v>416.4689025878906</v>
       </c>
       <c r="F27">
-        <v>82201600</v>
+        <v>51376700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>415.3900146484375</v>
+        <v>420.3299865722656</v>
       </c>
       <c r="B28">
-        <v>416.3900146484375</v>
+        <v>420.7099914550781</v>
       </c>
       <c r="C28">
-        <v>413.3599853515625</v>
+        <v>417.6199951171875</v>
       </c>
       <c r="D28">
-        <v>415.5199890136719</v>
+        <v>418.239990234375</v>
       </c>
       <c r="E28">
-        <v>412.8424072265625</v>
+        <v>415.5448913574219</v>
       </c>
       <c r="F28">
-        <v>65129200</v>
+        <v>57451400</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>415.7999877929688</v>
+        <v>418.8699951171875</v>
       </c>
       <c r="B29">
-        <v>416.0599975585938</v>
+        <v>419.6099853515625</v>
       </c>
       <c r="C29">
-        <v>411.7699890136719</v>
+        <v>417.760009765625</v>
       </c>
       <c r="D29">
-        <v>411.9400024414062</v>
+        <v>419.0700073242188</v>
       </c>
       <c r="E29">
-        <v>409.2854919433594</v>
+        <v>416.3695373535156</v>
       </c>
       <c r="F29">
-        <v>59810200</v>
+        <v>43088600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>406.9200134277344</v>
+        <v>420.1700134277344</v>
       </c>
       <c r="B30">
-        <v>411.0499877929688</v>
+        <v>420.7200012207031</v>
       </c>
       <c r="C30">
-        <v>405.3299865722656</v>
+        <v>418.989990234375</v>
       </c>
       <c r="D30">
-        <v>410.8599853515625</v>
+        <v>419.2900085449219</v>
       </c>
       <c r="E30">
-        <v>408.2124328613281</v>
+        <v>416.5881042480469</v>
       </c>
       <c r="F30">
-        <v>106467100</v>
+        <v>56707700</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>411.7999877929688</v>
+        <v>420.9700012207031</v>
       </c>
       <c r="B31">
-        <v>416.6300048828125</v>
+        <v>421.25</v>
       </c>
       <c r="C31">
-        <v>411.6700134277344</v>
+        <v>419.7900085449219</v>
       </c>
       <c r="D31">
-        <v>415.2799987792969</v>
+        <v>420.0400085449219</v>
       </c>
       <c r="E31">
-        <v>412.6039733886719</v>
+        <v>417.3332824707031</v>
       </c>
       <c r="F31">
-        <v>78022200</v>
+        <v>58520200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>416.8699951171875</v>
+        <v>422.5700073242188</v>
       </c>
       <c r="B32">
-        <v>418.2000122070312</v>
+        <v>422.7200012207031</v>
       </c>
       <c r="C32">
-        <v>414.4500122070312</v>
+        <v>419.2000122070312</v>
       </c>
       <c r="D32">
-        <v>414.9400024414062</v>
+        <v>419.6700134277344</v>
       </c>
       <c r="E32">
-        <v>412.2661743164062</v>
+        <v>416.9656982421875</v>
       </c>
       <c r="F32">
-        <v>76578700</v>
+        <v>54216600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>417.3399963378906</v>
+        <v>420.3699951171875</v>
       </c>
       <c r="B33">
-        <v>420.3200073242188</v>
+        <v>421.2300109863281</v>
       </c>
       <c r="C33">
-        <v>417.0799865722656</v>
+        <v>419.2900085449219</v>
       </c>
       <c r="D33">
-        <v>419.1700134277344</v>
+        <v>420.3299865722656</v>
       </c>
       <c r="E33">
-        <v>416.4689025878906</v>
+        <v>417.6213989257812</v>
       </c>
       <c r="F33">
-        <v>51376700</v>
+        <v>49097100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>420.3299865722656</v>
+        <v>417.8500061035156</v>
       </c>
       <c r="B34">
-        <v>420.7099914550781</v>
+        <v>419.989990234375</v>
       </c>
       <c r="C34">
-        <v>417.6199951171875</v>
+        <v>416.2799987792969</v>
       </c>
       <c r="D34">
-        <v>418.239990234375</v>
+        <v>418.7699890136719</v>
       </c>
       <c r="E34">
-        <v>415.5448608398438</v>
+        <v>416.0714721679688</v>
       </c>
       <c r="F34">
-        <v>57451400</v>
+        <v>58138800</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>418.8699951171875</v>
+        <v>420.75</v>
       </c>
       <c r="B35">
-        <v>419.6099853515625</v>
+        <v>422.9200134277344</v>
       </c>
       <c r="C35">
-        <v>417.760009765625</v>
+        <v>418.8399963378906</v>
       </c>
       <c r="D35">
-        <v>419.0700073242188</v>
+        <v>422.6000061035156</v>
       </c>
       <c r="E35">
-        <v>416.3695373535156</v>
+        <v>419.8768005371094</v>
       </c>
       <c r="F35">
-        <v>43088600</v>
+        <v>55938800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>420.1700134277344</v>
+        <v>422.5899963378906</v>
       </c>
       <c r="B36">
-        <v>420.7200012207031</v>
+        <v>422.7799987792969</v>
       </c>
       <c r="C36">
-        <v>418.989990234375</v>
+        <v>421.1900024414062</v>
       </c>
       <c r="D36">
-        <v>419.2900085449219</v>
+        <v>422.1900024414062</v>
       </c>
       <c r="E36">
-        <v>416.5881042480469</v>
+        <v>419.4694519042969</v>
       </c>
       <c r="F36">
-        <v>56707700</v>
+        <v>51555000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>420.9700012207031</v>
+        <v>423.1099853515625</v>
       </c>
       <c r="B37">
-        <v>421.25</v>
+        <v>423.2099914550781</v>
       </c>
       <c r="C37">
-        <v>419.7900085449219</v>
+        <v>420.3200073242188</v>
       </c>
       <c r="D37">
-        <v>420.0400085449219</v>
+        <v>422.2799987792969</v>
       </c>
       <c r="E37">
-        <v>417.3333129882812</v>
+        <v>419.5588684082031</v>
       </c>
       <c r="F37">
-        <v>58520200</v>
+        <v>47134300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>422.5700073242188</v>
+        <v>423.1799926757812</v>
       </c>
       <c r="B38">
-        <v>422.7200012207031</v>
+        <v>423.260009765625</v>
       </c>
       <c r="C38">
-        <v>419.2000122070312</v>
+        <v>421.4100036621094</v>
       </c>
       <c r="D38">
-        <v>419.6700134277344</v>
+        <v>421.6499938964844</v>
       </c>
       <c r="E38">
-        <v>416.9656982421875</v>
+        <v>418.9328918457031</v>
       </c>
       <c r="F38">
-        <v>54216600</v>
+        <v>48436300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>420.3699951171875</v>
+        <v>422.9599914550781</v>
       </c>
       <c r="B39">
-        <v>421.2300109863281</v>
+        <v>424.6300048828125</v>
       </c>
       <c r="C39">
-        <v>419.2900085449219</v>
+        <v>421.5499877929688</v>
       </c>
       <c r="D39">
-        <v>420.3299865722656</v>
+        <v>423.6099853515625</v>
       </c>
       <c r="E39">
-        <v>417.6214294433594</v>
+        <v>420.8802795410156</v>
       </c>
       <c r="F39">
-        <v>49097100</v>
+        <v>51020100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>417.8500061035156</v>
+        <v>424.2000122070312</v>
       </c>
       <c r="B40">
-        <v>419.989990234375</v>
+        <v>424.4299926757812</v>
       </c>
       <c r="C40">
-        <v>416.2799987792969</v>
+        <v>422.8200073242188</v>
       </c>
       <c r="D40">
-        <v>418.7699890136719</v>
+        <v>424.3099975585938</v>
       </c>
       <c r="E40">
-        <v>416.0714721679688</v>
+        <v>421.5757751464844</v>
       </c>
       <c r="F40">
-        <v>58138800</v>
+        <v>45570800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>420.75</v>
+        <v>424.4299926757812</v>
       </c>
       <c r="B41">
-        <v>422.9200134277344</v>
+        <v>425.3699951171875</v>
       </c>
       <c r="C41">
-        <v>418.8399963378906</v>
+        <v>423.1000061035156</v>
       </c>
       <c r="D41">
-        <v>422.6000061035156</v>
+        <v>425.260009765625</v>
       </c>
       <c r="E41">
-        <v>419.8768005371094</v>
+        <v>422.5196533203125</v>
       </c>
       <c r="F41">
-        <v>55938800</v>
+        <v>42358500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>422.5899963378906</v>
+        <v>425.4200134277344</v>
       </c>
       <c r="B42">
-        <v>422.7799987792969</v>
+        <v>425.4599914550781</v>
       </c>
       <c r="C42">
-        <v>421.1900024414062</v>
+        <v>423.5400085449219</v>
       </c>
       <c r="D42">
-        <v>422.1900024414062</v>
+        <v>424.4800109863281</v>
       </c>
       <c r="E42">
-        <v>419.4694519042969</v>
+        <v>421.7446899414062</v>
       </c>
       <c r="F42">
-        <v>51555000</v>
+        <v>51508500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>423.1099853515625</v>
+        <v>424.6300048828125</v>
       </c>
       <c r="B43">
-        <v>423.2099914550781</v>
+        <v>424.8699951171875</v>
       </c>
       <c r="C43">
-        <v>420.3200073242188</v>
+        <v>419.9200134277344</v>
       </c>
       <c r="D43">
-        <v>422.2799987792969</v>
+        <v>422.1099853515625</v>
       </c>
       <c r="E43">
-        <v>419.5588684082031</v>
+        <v>419.3899230957031</v>
       </c>
       <c r="F43">
-        <v>47134300</v>
+        <v>80386100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>423.1799926757812</v>
+        <v>421.6700134277344</v>
       </c>
       <c r="B44">
-        <v>423.260009765625</v>
+        <v>423.0199890136719</v>
       </c>
       <c r="C44">
-        <v>421.4100036621094</v>
+        <v>419.3200073242188</v>
       </c>
       <c r="D44">
-        <v>421.6499938964844</v>
+        <v>421.9700012207031</v>
       </c>
       <c r="E44">
-        <v>418.9328918457031</v>
+        <v>419.2508544921875</v>
       </c>
       <c r="F44">
-        <v>48436300</v>
+        <v>90949700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>422.9599914550781</v>
+        <v>417.0899963378906</v>
       </c>
       <c r="B45">
-        <v>424.6300048828125</v>
+        <v>417.8299865722656</v>
       </c>
       <c r="C45">
-        <v>421.5499877929688</v>
+        <v>414.7000122070312</v>
       </c>
       <c r="D45">
-        <v>423.6099853515625</v>
+        <v>414.9200134277344</v>
       </c>
       <c r="E45">
-        <v>420.8802490234375</v>
+        <v>413.5950012207031</v>
       </c>
       <c r="F45">
-        <v>51020100</v>
+        <v>118676300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>424.2000122070312</v>
+        <v>416.7999877929688</v>
       </c>
       <c r="B46">
-        <v>424.4299926757812</v>
+        <v>421.0599975585938</v>
       </c>
       <c r="C46">
-        <v>422.8200073242188</v>
+        <v>415.9299926757812</v>
       </c>
       <c r="D46">
-        <v>424.3099975585938</v>
+        <v>420.8599853515625</v>
       </c>
       <c r="E46">
-        <v>421.5757751464844</v>
+        <v>419.5159912109375</v>
       </c>
       <c r="F46">
-        <v>45570800</v>
+        <v>72822000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>424.4299926757812</v>
+        <v>420.8500061035156</v>
       </c>
       <c r="B47">
-        <v>425.3699951171875</v>
+        <v>424</v>
       </c>
       <c r="C47">
-        <v>423.1000061035156</v>
+        <v>420.0799865722656</v>
       </c>
       <c r="D47">
-        <v>425.260009765625</v>
+        <v>423.1099853515625</v>
       </c>
       <c r="E47">
-        <v>422.5196838378906</v>
+        <v>421.7588195800781</v>
       </c>
       <c r="F47">
-        <v>42358500</v>
+        <v>57700300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>425.4200134277344</v>
+        <v>423.1900024414062</v>
       </c>
       <c r="B48">
-        <v>425.4599914550781</v>
+        <v>424.0499877929688</v>
       </c>
       <c r="C48">
-        <v>423.5400085449219</v>
+        <v>422.510009765625</v>
       </c>
       <c r="D48">
-        <v>424.4800109863281</v>
+        <v>422.6000061035156</v>
       </c>
       <c r="E48">
-        <v>421.7446899414062</v>
+        <v>421.2504577636719</v>
       </c>
       <c r="F48">
-        <v>51508500</v>
+        <v>49445400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>424.6300048828125</v>
+        <v>424.8900146484375</v>
       </c>
       <c r="B49">
-        <v>424.8699951171875</v>
+        <v>425.5499877929688</v>
       </c>
       <c r="C49">
-        <v>419.9200134277344</v>
+        <v>424.6199951171875</v>
       </c>
       <c r="D49">
-        <v>422.1099853515625</v>
+        <v>425.1000061035156</v>
       </c>
       <c r="E49">
-        <v>419.3899230957031</v>
+        <v>423.7424621582031</v>
       </c>
       <c r="F49">
-        <v>80386100</v>
+        <v>45110300</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>421.6700134277344</v>
+        <v>425.8999938964844</v>
       </c>
       <c r="B50">
-        <v>423.0199890136719</v>
+        <v>427.0899963378906</v>
       </c>
       <c r="C50">
-        <v>419.3200073242188</v>
+        <v>425.5499877929688</v>
       </c>
       <c r="D50">
-        <v>421.9700012207031</v>
+        <v>426.6099853515625</v>
       </c>
       <c r="E50">
-        <v>419.2508544921875</v>
+        <v>425.2476196289062</v>
       </c>
       <c r="F50">
-        <v>90949700</v>
+        <v>58129500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>417.0899963378906</v>
+        <v>427.1700134277344</v>
       </c>
       <c r="B51">
-        <v>417.8299865722656</v>
+        <v>427.6499938964844</v>
       </c>
       <c r="C51">
-        <v>414.7000122070312</v>
+        <v>425.8900146484375</v>
       </c>
       <c r="D51">
-        <v>414.9200134277344</v>
+        <v>427.4700012207031</v>
       </c>
       <c r="E51">
-        <v>413.5950012207031</v>
+        <v>426.1048889160156</v>
       </c>
       <c r="F51">
-        <v>118676300</v>
+        <v>53159600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>416.7999877929688</v>
+        <v>427.8800048828125</v>
       </c>
       <c r="B52">
-        <v>421.0599975585938</v>
+        <v>428.5599975585938</v>
       </c>
       <c r="C52">
-        <v>415.9299926757812</v>
+        <v>427.1300048828125</v>
       </c>
       <c r="D52">
-        <v>420.8599853515625</v>
+        <v>427.7000122070312</v>
       </c>
       <c r="E52">
-        <v>419.5159912109375</v>
+        <v>426.3341674804688</v>
       </c>
       <c r="F52">
-        <v>72822000</v>
+        <v>35970500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>420.8500061035156</v>
+        <v>427.2099914550781</v>
       </c>
       <c r="B53">
-        <v>424</v>
+        <v>428.7799987792969</v>
       </c>
       <c r="C53">
-        <v>420.0799865722656</v>
+        <v>427.1799926757812</v>
       </c>
       <c r="D53">
-        <v>423.1099853515625</v>
+        <v>428.0599975585938</v>
       </c>
       <c r="E53">
-        <v>421.7588195800781</v>
+        <v>426.6930236816406</v>
       </c>
       <c r="F53">
-        <v>57700300</v>
+        <v>64827900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>423.1900024414062</v>
+        <v>428.8699951171875</v>
       </c>
       <c r="B54">
-        <v>424.0499877929688</v>
+        <v>430.6000061035156</v>
       </c>
       <c r="C54">
-        <v>422.510009765625</v>
+        <v>428.7999877929688</v>
       </c>
       <c r="D54">
-        <v>422.6000061035156</v>
+        <v>430.4299926757812</v>
       </c>
       <c r="E54">
-        <v>421.2504577636719</v>
+        <v>429.0554504394531</v>
       </c>
       <c r="F54">
-        <v>49445400</v>
+        <v>53441000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>424.8900146484375</v>
+        <v>431.6700134277344</v>
       </c>
       <c r="B55">
-        <v>425.5499877929688</v>
+        <v>434.1000061035156</v>
       </c>
       <c r="C55">
-        <v>424.6199951171875</v>
+        <v>430.5199890136719</v>
       </c>
       <c r="D55">
-        <v>425.1000061035156</v>
+        <v>433.7200012207031</v>
       </c>
       <c r="E55">
-        <v>423.7424621582031</v>
+        <v>432.3349304199219</v>
       </c>
       <c r="F55">
-        <v>45110300</v>
+        <v>57697700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>425.8999938964844</v>
+        <v>433.7799987792969</v>
       </c>
       <c r="B56">
-        <v>427.0899963378906</v>
+        <v>434.010009765625</v>
       </c>
       <c r="C56">
-        <v>425.5499877929688</v>
+        <v>430.010009765625</v>
       </c>
       <c r="D56">
-        <v>426.6099853515625</v>
+        <v>432.9299926757812</v>
       </c>
       <c r="E56">
-        <v>425.2476196289062</v>
+        <v>431.5474548339844</v>
       </c>
       <c r="F56">
-        <v>58129500</v>
+        <v>68710400</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>427.1700134277344</v>
+        <v>433.6600036621094</v>
       </c>
       <c r="B57">
-        <v>427.6499938964844</v>
+        <v>434.760009765625</v>
       </c>
       <c r="C57">
-        <v>425.8900146484375</v>
+        <v>431.510009765625</v>
       </c>
       <c r="D57">
-        <v>427.4700012207031</v>
+        <v>434.4599914550781</v>
       </c>
       <c r="E57">
-        <v>426.1048889160156</v>
+        <v>433.0725708007812</v>
       </c>
       <c r="F57">
-        <v>53159600</v>
+        <v>63549500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>427.8800048828125</v>
+        <v>428.7799987792969</v>
       </c>
       <c r="B58">
-        <v>428.5599975585938</v>
+        <v>431.7300109863281</v>
       </c>
       <c r="C58">
-        <v>427.1300048828125</v>
+        <v>427.5199890136719</v>
       </c>
       <c r="D58">
-        <v>427.7000122070312</v>
+        <v>430.9200134277344</v>
       </c>
       <c r="E58">
-        <v>426.3341674804688</v>
+        <v>429.5438842773438</v>
       </c>
       <c r="F58">
-        <v>35970500</v>
+        <v>97595200</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>427.2099914550781</v>
+        <v>432.5299987792969</v>
       </c>
       <c r="B59">
-        <v>428.7799987792969</v>
+        <v>435.8399963378906</v>
       </c>
       <c r="C59">
-        <v>427.1799926757812</v>
+        <v>430.7099914550781</v>
       </c>
       <c r="D59">
-        <v>428.0599975585938</v>
+        <v>435.5199890136719</v>
       </c>
       <c r="E59">
-        <v>426.6930236816406</v>
+        <v>434.1291809082031</v>
       </c>
       <c r="F59">
-        <v>64827900</v>
+        <v>76238600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>428.8699951171875</v>
+        <v>435.4299926757812</v>
       </c>
       <c r="B60">
-        <v>430.6000061035156</v>
+        <v>437.3500061035156</v>
       </c>
       <c r="C60">
-        <v>428.7999877929688</v>
+        <v>434.9700012207031</v>
       </c>
       <c r="D60">
-        <v>430.4299926757812</v>
+        <v>437.0799865722656</v>
       </c>
       <c r="E60">
-        <v>429.0554504394531</v>
+        <v>435.6842041015625</v>
       </c>
       <c r="F60">
-        <v>53441000</v>
+        <v>52889600</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>431.6700134277344</v>
+        <v>436.239990234375</v>
       </c>
       <c r="B61">
-        <v>434.1000061035156</v>
+        <v>437.8399963378906</v>
       </c>
       <c r="C61">
-        <v>430.5199890136719</v>
+        <v>435.3099975585938</v>
       </c>
       <c r="D61">
-        <v>433.7200012207031</v>
+        <v>435.5899963378906</v>
       </c>
       <c r="E61">
-        <v>432.3349304199219</v>
+        <v>434.198974609375</v>
       </c>
       <c r="F61">
-        <v>57697700</v>
+        <v>52911300</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>433.7799987792969</v>
+        <v>437.3999938964844</v>
       </c>
       <c r="B62">
-        <v>434.010009765625</v>
+        <v>437.9200134277344</v>
       </c>
       <c r="C62">
-        <v>430.010009765625</v>
+        <v>434.9100036621094</v>
       </c>
       <c r="D62">
-        <v>432.9299926757812</v>
+        <v>436.239990234375</v>
       </c>
       <c r="E62">
-        <v>431.5474548339844</v>
+        <v>434.8468933105469</v>
       </c>
       <c r="F62">
-        <v>68710400</v>
+        <v>64130400</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>433.6600036621094</v>
+        <v>434.8099975585938</v>
       </c>
       <c r="B63">
-        <v>434.760009765625</v>
+        <v>435.5299987792969</v>
       </c>
       <c r="C63">
-        <v>431.510009765625</v>
+        <v>432.7200012207031</v>
       </c>
       <c r="D63">
-        <v>434.4599914550781</v>
+        <v>434.75</v>
       </c>
       <c r="E63">
-        <v>433.0725708007812</v>
+        <v>433.3616638183594</v>
       </c>
       <c r="F63">
-        <v>63549500</v>
+        <v>55126400</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>428.7799987792969</v>
+        <v>436.010009765625</v>
       </c>
       <c r="B64">
-        <v>431.7300109863281</v>
+        <v>436.0599975585938</v>
       </c>
       <c r="C64">
-        <v>427.5199890136719</v>
+        <v>430.9200134277344</v>
       </c>
       <c r="D64">
-        <v>430.9200134277344</v>
+        <v>431.3399963378906</v>
       </c>
       <c r="E64">
-        <v>429.5438842773438</v>
+        <v>429.9625244140625</v>
       </c>
       <c r="F64">
-        <v>97595200</v>
+        <v>75874700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>432.5299987792969</v>
+        <v>426.1900024414062</v>
       </c>
       <c r="B65">
-        <v>435.8399963378906</v>
+        <v>431.4100036621094</v>
       </c>
       <c r="C65">
-        <v>430.7099914550781</v>
+        <v>421.9700012207031</v>
       </c>
       <c r="D65">
-        <v>435.5199890136719</v>
+        <v>424.9700012207031</v>
       </c>
       <c r="E65">
-        <v>434.1291809082031</v>
+        <v>423.6128845214844</v>
       </c>
       <c r="F65">
-        <v>76238600</v>
+        <v>147987000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>435.4299926757812</v>
+        <v>425.6799926757812</v>
       </c>
       <c r="B66">
-        <v>437.3500061035156</v>
+        <v>432.4200134277344</v>
       </c>
       <c r="C66">
-        <v>434.9700012207031</v>
+        <v>424.8299865722656</v>
       </c>
       <c r="D66">
-        <v>437.0799865722656</v>
+        <v>431.0599975585938</v>
       </c>
       <c r="E66">
-        <v>435.6842041015625</v>
+        <v>429.6834411621094</v>
       </c>
       <c r="F66">
-        <v>52889600</v>
+        <v>99608200</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>436.239990234375</v>
+        <v>432.3399963378906</v>
       </c>
       <c r="B67">
-        <v>437.8399963378906</v>
+        <v>434.7000122070312</v>
       </c>
       <c r="C67">
-        <v>435.3099975585938</v>
+        <v>431.010009765625</v>
       </c>
       <c r="D67">
-        <v>435.5899963378906</v>
+        <v>434.5499877929688</v>
       </c>
       <c r="E67">
-        <v>434.198974609375</v>
+        <v>433.1622924804688</v>
       </c>
       <c r="F67">
-        <v>52911300</v>
+        <v>64724400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>437.3999938964844</v>
+        <v>434.739990234375</v>
       </c>
       <c r="B68">
-        <v>437.9200134277344</v>
+        <v>435.7200012207031</v>
       </c>
       <c r="C68">
-        <v>434.9100036621094</v>
+        <v>433.6900024414062</v>
       </c>
       <c r="D68">
-        <v>436.239990234375</v>
+        <v>435.4599914550781</v>
       </c>
       <c r="E68">
-        <v>434.8468933105469</v>
+        <v>434.0693664550781</v>
       </c>
       <c r="F68">
-        <v>64130400</v>
+        <v>47878500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>434.8099975585938</v>
+        <v>437.5199890136719</v>
       </c>
       <c r="B69">
-        <v>435.5299987792969</v>
+        <v>440.2999877929688</v>
       </c>
       <c r="C69">
-        <v>432.7200012207031</v>
+        <v>436.7900085449219</v>
       </c>
       <c r="D69">
-        <v>434.75</v>
+        <v>439.9400024414062</v>
       </c>
       <c r="E69">
-        <v>433.3616638183594</v>
+        <v>438.5350952148438</v>
       </c>
       <c r="F69">
-        <v>55126400</v>
+        <v>63766600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>436.010009765625</v>
+        <v>439.3099975585938</v>
       </c>
       <c r="B70">
-        <v>436.0599975585938</v>
+        <v>441.0299987792969</v>
       </c>
       <c r="C70">
-        <v>430.9200134277344</v>
+        <v>439.260009765625</v>
       </c>
       <c r="D70">
-        <v>431.3399963378906</v>
+        <v>441.0199890136719</v>
       </c>
       <c r="E70">
-        <v>429.9625244140625</v>
+        <v>439.6116333007812</v>
       </c>
       <c r="F70">
-        <v>75874700</v>
+        <v>43719200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>426.1900024414062</v>
+        <v>439.9100036621094</v>
       </c>
       <c r="B71">
-        <v>431.4100036621094</v>
+        <v>439.9400024414062</v>
       </c>
       <c r="C71">
-        <v>421.9700012207031</v>
+        <v>435.989990234375</v>
       </c>
       <c r="D71">
-        <v>424.9700012207031</v>
+        <v>439.010009765625</v>
       </c>
       <c r="E71">
-        <v>423.6128845214844</v>
+        <v>437.6080627441406</v>
       </c>
       <c r="F71">
-        <v>147987000</v>
+        <v>67397100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>425.6799926757812</v>
+        <v>439.6799926757812</v>
       </c>
       <c r="B72">
-        <v>432.4200134277344</v>
+        <v>440.2999877929688</v>
       </c>
       <c r="C72">
-        <v>424.8299865722656</v>
+        <v>437.3099975585938</v>
       </c>
       <c r="D72">
-        <v>431.0599975585938</v>
+        <v>438.8299865722656</v>
       </c>
       <c r="E72">
-        <v>429.6834411621094</v>
+        <v>437.4286193847656</v>
       </c>
       <c r="F72">
-        <v>99608200</v>
+        <v>52472400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>432.3399963378906</v>
+        <v>439.8200073242188</v>
       </c>
       <c r="B73">
-        <v>434.7000122070312</v>
+        <v>441.7999877929688</v>
       </c>
       <c r="C73">
-        <v>431.010009765625</v>
+        <v>439.8099975585938</v>
       </c>
       <c r="D73">
-        <v>434.5499877929688</v>
+        <v>440.6499938964844</v>
       </c>
       <c r="E73">
-        <v>433.1622924804688</v>
+        <v>439.2427978515625</v>
       </c>
       <c r="F73">
-        <v>64724400</v>
+        <v>47435300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>434.739990234375</v>
+        <v>437.9100036621094</v>
       </c>
       <c r="B74">
-        <v>435.7200012207031</v>
+        <v>440.0599975585938</v>
       </c>
       <c r="C74">
-        <v>433.6900024414062</v>
+        <v>437.7699890136719</v>
       </c>
       <c r="D74">
-        <v>435.4599914550781</v>
+        <v>438.510009765625</v>
       </c>
       <c r="E74">
-        <v>434.0693664550781</v>
+        <v>437.1096496582031</v>
       </c>
       <c r="F74">
-        <v>47878500</v>
+        <v>68890600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>437.5199890136719</v>
+        <v>440.3399963378906</v>
       </c>
       <c r="B75">
-        <v>440.2999877929688</v>
+        <v>440.9299926757812</v>
       </c>
       <c r="C75">
-        <v>436.7900085449219</v>
+        <v>437.2099914550781</v>
       </c>
       <c r="D75">
-        <v>439.9400024414062</v>
+        <v>437.5899963378906</v>
       </c>
       <c r="E75">
-        <v>438.5350952148438</v>
+        <v>436.1925659179688</v>
       </c>
       <c r="F75">
-        <v>63766600</v>
+        <v>58783300</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>439.3099975585938</v>
+        <v>438.4400024414062</v>
       </c>
       <c r="B76">
-        <v>441.0299987792969</v>
+        <v>441.2799987792969</v>
       </c>
       <c r="C76">
-        <v>439.260009765625</v>
+        <v>436.1000061035156</v>
       </c>
       <c r="D76">
-        <v>441.0199890136719</v>
+        <v>441.1499938964844</v>
       </c>
       <c r="E76">
-        <v>439.6116333007812</v>
+        <v>439.7412109375</v>
       </c>
       <c r="F76">
-        <v>43719200</v>
+        <v>58053900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>439.9100036621094</v>
+        <v>439.7799987792969</v>
       </c>
       <c r="B77">
-        <v>439.9400024414062</v>
+        <v>441.1199951171875</v>
       </c>
       <c r="C77">
-        <v>435.989990234375</v>
+        <v>438.7300109863281</v>
       </c>
       <c r="D77">
-        <v>439.010009765625</v>
+        <v>438.9800109863281</v>
       </c>
       <c r="E77">
-        <v>437.6080627441406</v>
+        <v>437.5781555175781</v>
       </c>
       <c r="F77">
-        <v>67397100</v>
+        <v>46732200</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>439.6799926757812</v>
+        <v>440.2200012207031</v>
       </c>
       <c r="B78">
-        <v>440.2999877929688</v>
+        <v>441.8500061035156</v>
       </c>
       <c r="C78">
-        <v>437.3099975585938</v>
+        <v>439.8800048828125</v>
       </c>
       <c r="D78">
-        <v>438.8299865722656</v>
+        <v>441.760009765625</v>
       </c>
       <c r="E78">
-        <v>437.4286193847656</v>
+        <v>440.3492736816406</v>
       </c>
       <c r="F78">
-        <v>52472400</v>
+        <v>38969700</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>439.8200073242188</v>
+        <v>442.1000061035156</v>
       </c>
       <c r="B79">
+        <v>442.9400024414062</v>
+      </c>
+      <c r="C79">
         <v>441.7999877929688</v>
       </c>
-      <c r="C79">
-        <v>439.8099975585938</v>
-      </c>
       <c r="D79">
-        <v>440.6499938964844</v>
+        <v>442.489990234375</v>
       </c>
       <c r="E79">
-        <v>439.2427978515625</v>
+        <v>441.0769348144531</v>
       </c>
       <c r="F79">
-        <v>47435300</v>
+        <v>46864100</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>437.9100036621094</v>
+        <v>442.4599914550781</v>
       </c>
       <c r="B80">
-        <v>440.0599975585938</v>
+        <v>442.7999877929688</v>
       </c>
       <c r="C80">
-        <v>437.7699890136719</v>
+        <v>441.3099975585938</v>
       </c>
       <c r="D80">
-        <v>438.510009765625</v>
+        <v>442.1300048828125</v>
       </c>
       <c r="E80">
-        <v>437.1096496582031</v>
+        <v>440.7180786132812</v>
       </c>
       <c r="F80">
-        <v>68890600</v>
+        <v>41222600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>440.3399963378906</v>
+        <v>442.6099853515625</v>
       </c>
       <c r="B81">
-        <v>440.9299926757812</v>
+        <v>443.4400024414062</v>
       </c>
       <c r="C81">
-        <v>437.2099914550781</v>
+        <v>441.8800048828125</v>
       </c>
       <c r="D81">
-        <v>437.5899963378906</v>
+        <v>442.6799926757812</v>
       </c>
       <c r="E81">
-        <v>436.1925659179688</v>
+        <v>441.2663269042969</v>
       </c>
       <c r="F81">
-        <v>58783300</v>
+        <v>43339300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>438.4400024414062</v>
+        <v>443.8200073242188</v>
       </c>
       <c r="B82">
-        <v>441.2799987792969</v>
+        <v>443.8800048828125</v>
       </c>
       <c r="C82">
-        <v>436.1000061035156</v>
+        <v>442.6199951171875</v>
       </c>
       <c r="D82">
-        <v>441.1499938964844</v>
+        <v>443.7799987792969</v>
       </c>
       <c r="E82">
-        <v>439.7412109375</v>
+        <v>442.3628234863281</v>
       </c>
       <c r="F82">
-        <v>58053900</v>
+        <v>44034300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>439.7799987792969</v>
+        <v>443.6199951171875</v>
       </c>
       <c r="B83">
-        <v>441.1199951171875</v>
+        <v>445.260009765625</v>
       </c>
       <c r="C83">
-        <v>438.7300109863281</v>
+        <v>442.6600036621094</v>
       </c>
       <c r="D83">
-        <v>438.9800109863281</v>
+        <v>445.1099853515625</v>
       </c>
       <c r="E83">
-        <v>437.5781555175781</v>
+        <v>443.6885681152344</v>
       </c>
       <c r="F83">
-        <v>46732200</v>
+        <v>38909400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>440.2200012207031</v>
+        <v>445.5899963378906</v>
       </c>
       <c r="B84">
-        <v>441.8500061035156</v>
+        <v>445.9400024414062</v>
       </c>
       <c r="C84">
-        <v>439.8800048828125</v>
+        <v>445.0700073242188</v>
       </c>
       <c r="D84">
-        <v>441.760009765625</v>
+        <v>445.9200134277344</v>
       </c>
       <c r="E84">
-        <v>440.3492736816406</v>
+        <v>444.4960021972656</v>
       </c>
       <c r="F84">
-        <v>38969700</v>
+        <v>39388300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>442.1000061035156</v>
+        <v>444.5299987792969</v>
       </c>
       <c r="B85">
-        <v>442.9400024414062</v>
+        <v>447.1099853515625</v>
       </c>
       <c r="C85">
-        <v>441.7999877929688</v>
+        <v>442.8699951171875</v>
       </c>
       <c r="D85">
-        <v>442.489990234375</v>
+        <v>446.9700012207031</v>
       </c>
       <c r="E85">
-        <v>441.0769348144531</v>
+        <v>445.5426330566406</v>
       </c>
       <c r="F85">
-        <v>46864100</v>
+        <v>73740000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>442.4599914550781</v>
+        <v>444.239990234375</v>
       </c>
       <c r="B86">
-        <v>442.7999877929688</v>
+        <v>444.9599914550781</v>
       </c>
       <c r="C86">
-        <v>441.3099975585938</v>
+        <v>440.8500061035156</v>
       </c>
       <c r="D86">
-        <v>442.1300048828125</v>
+        <v>444.0400085449219</v>
       </c>
       <c r="E86">
-        <v>440.7180786132812</v>
+        <v>442.6220092773438</v>
       </c>
       <c r="F86">
-        <v>41222600</v>
+        <v>92673900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>442.6099853515625</v>
+        <v>442.9599914550781</v>
       </c>
       <c r="B87">
-        <v>443.4400024414062</v>
+        <v>444.6300048828125</v>
       </c>
       <c r="C87">
-        <v>441.8800048828125</v>
+        <v>438.9200134277344</v>
       </c>
       <c r="D87">
-        <v>442.6799926757812</v>
+        <v>439.1799926757812</v>
       </c>
       <c r="E87">
-        <v>441.2663269042969</v>
+        <v>437.7774963378906</v>
       </c>
       <c r="F87">
-        <v>43339300</v>
+        <v>89351900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>443.8200073242188</v>
+        <v>436.2699890136719</v>
       </c>
       <c r="B88">
-        <v>443.8800048828125</v>
+        <v>441.1400146484375</v>
       </c>
       <c r="C88">
-        <v>442.6199951171875</v>
+        <v>436.1199951171875</v>
       </c>
       <c r="D88">
-        <v>443.7799987792969</v>
+        <v>439.8599853515625</v>
       </c>
       <c r="E88">
-        <v>442.3628234863281</v>
+        <v>438.455322265625</v>
       </c>
       <c r="F88">
-        <v>44034300</v>
+        <v>92812200</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>443.6199951171875</v>
+        <v>440.2300109863281</v>
       </c>
       <c r="B89">
-        <v>445.260009765625</v>
+        <v>443.7099914550781</v>
       </c>
       <c r="C89">
-        <v>442.6600036621094</v>
+        <v>439.7099914550781</v>
       </c>
       <c r="D89">
-        <v>445.1099853515625</v>
+        <v>443.3599853515625</v>
       </c>
       <c r="E89">
-        <v>443.6885681152344</v>
+        <v>441.9441528320312</v>
       </c>
       <c r="F89">
-        <v>38909400</v>
+        <v>71975900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>445.5899963378906</v>
+        <v>445.1600036621094</v>
       </c>
       <c r="B90">
-        <v>445.9400024414062</v>
+        <v>448.2300109863281</v>
       </c>
       <c r="C90">
-        <v>445.0700073242188</v>
+        <v>443.4400024414062</v>
       </c>
       <c r="D90">
-        <v>445.9200134277344</v>
+        <v>447.260009765625</v>
       </c>
       <c r="E90">
-        <v>444.4960021972656</v>
+        <v>445.8317260742188</v>
       </c>
       <c r="F90">
-        <v>39388300</v>
+        <v>54973000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>444.5299987792969</v>
+        <v>447.9700012207031</v>
       </c>
       <c r="B91">
-        <v>447.1099853515625</v>
+        <v>448.5400085449219</v>
       </c>
       <c r="C91">
-        <v>442.8699951171875</v>
+        <v>447.4200134277344</v>
       </c>
       <c r="D91">
-        <v>446.9700012207031</v>
+        <v>447.9700012207031</v>
       </c>
       <c r="E91">
-        <v>445.5426330566406</v>
+        <v>446.5394287109375</v>
       </c>
       <c r="F91">
-        <v>73740000</v>
+        <v>38744700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>444.239990234375</v>
+        <v>448.1700134277344</v>
       </c>
       <c r="B92">
-        <v>444.9599914550781</v>
+        <v>449.4599914550781</v>
       </c>
       <c r="C92">
-        <v>440.8500061035156</v>
+        <v>447.7699890136719</v>
       </c>
       <c r="D92">
-        <v>444.0400085449219</v>
+        <v>448.9100036621094</v>
       </c>
       <c r="E92">
-        <v>442.6220092773438</v>
+        <v>447.4764404296875</v>
       </c>
       <c r="F92">
-        <v>92673900</v>
+        <v>40529700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>442.9599914550781</v>
+        <v>448.6099853515625</v>
       </c>
       <c r="B93">
-        <v>444.6300048828125</v>
+        <v>448.8599853515625</v>
       </c>
       <c r="C93">
-        <v>438.9200134277344</v>
+        <v>446.1600036621094</v>
       </c>
       <c r="D93">
-        <v>439.1799926757812</v>
+        <v>446.260009765625</v>
       </c>
       <c r="E93">
-        <v>437.7774963378906</v>
+        <v>444.8348999023438</v>
       </c>
       <c r="F93">
-        <v>89351900</v>
+        <v>57829600</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>436.2699890136719</v>
+        <v>447.1199951171875</v>
       </c>
       <c r="B94">
-        <v>441.1400146484375</v>
+        <v>450.6499938964844</v>
       </c>
       <c r="C94">
-        <v>436.1199951171875</v>
+        <v>447.0599975585938</v>
       </c>
       <c r="D94">
-        <v>439.8599853515625</v>
+        <v>450.25</v>
       </c>
       <c r="E94">
-        <v>438.455322265625</v>
+        <v>448.8121643066406</v>
       </c>
       <c r="F94">
-        <v>92812200</v>
+        <v>77201900</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>440.2300109863281</v>
+        <v>450.9700012207031</v>
       </c>
       <c r="B95">
-        <v>443.7099914550781</v>
+        <v>453.0700073242188</v>
       </c>
       <c r="C95">
-        <v>439.7099914550781</v>
+        <v>450.7099914550781</v>
       </c>
       <c r="D95">
-        <v>443.3599853515625</v>
+        <v>452.2300109863281</v>
       </c>
       <c r="E95">
-        <v>441.9441528320312</v>
+        <v>450.7858276367188</v>
       </c>
       <c r="F95">
-        <v>71975900</v>
+        <v>48357400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>445.1600036621094</v>
+        <v>452.1300048828125</v>
       </c>
       <c r="B96">
-        <v>448.2300109863281</v>
+        <v>452.489990234375</v>
       </c>
       <c r="C96">
-        <v>443.4400024414062</v>
+        <v>450.9200134277344</v>
       </c>
       <c r="D96">
-        <v>447.260009765625</v>
+        <v>451.5599975585938</v>
       </c>
       <c r="E96">
-        <v>445.8317260742188</v>
+        <v>450.1179809570312</v>
       </c>
       <c r="F96">
-        <v>54973000</v>
+        <v>59300200</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>447.9700012207031</v>
+        <v>452.5599975585938</v>
       </c>
       <c r="B97">
-        <v>448.5400085449219</v>
+        <v>453.1099853515625</v>
       </c>
       <c r="C97">
-        <v>447.4200134277344</v>
+        <v>451.5499877929688</v>
       </c>
       <c r="D97">
-        <v>447.9700012207031</v>
+        <v>451.7999877929688</v>
       </c>
       <c r="E97">
-        <v>446.5394287109375</v>
+        <v>450.357177734375</v>
       </c>
       <c r="F97">
-        <v>38744700</v>
+        <v>48721400</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>448.1700134277344</v>
+        <v>453.3200073242188</v>
       </c>
       <c r="B98">
-        <v>449.4599914550781</v>
+        <v>454.0499877929688</v>
       </c>
       <c r="C98">
-        <v>447.7699890136719</v>
+        <v>451.9100036621094</v>
       </c>
       <c r="D98">
-        <v>448.9100036621094</v>
+        <v>453.1900024414062</v>
       </c>
       <c r="E98">
-        <v>447.4764404296875</v>
+        <v>451.7427673339844</v>
       </c>
       <c r="F98">
-        <v>40529700</v>
+        <v>42501000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>448.6099853515625</v>
+        <v>451.9800109863281</v>
       </c>
       <c r="B99">
-        <v>448.8599853515625</v>
+        <v>453.6300048828125</v>
       </c>
       <c r="C99">
-        <v>446.1600036621094</v>
+        <v>451.5499877929688</v>
       </c>
       <c r="D99">
-        <v>446.260009765625</v>
+        <v>453.0799865722656</v>
       </c>
       <c r="E99">
-        <v>444.8348999023438</v>
+        <v>451.6331176757812</v>
       </c>
       <c r="F99">
-        <v>57829600</v>
+        <v>47170500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>447.1199951171875</v>
+        <v>452.7099914550781</v>
       </c>
       <c r="B100">
-        <v>450.6499938964844</v>
+        <v>452.8099975585938</v>
       </c>
       <c r="C100">
-        <v>447.0599975585938</v>
+        <v>450.739990234375</v>
       </c>
       <c r="D100">
-        <v>450.25</v>
+        <v>451.4599914550781</v>
       </c>
       <c r="E100">
-        <v>448.8121643066406</v>
+        <v>450.0182800292969</v>
       </c>
       <c r="F100">
-        <v>77201900</v>
+        <v>51671500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>450.9700012207031</v>
+        <v>450.8900146484375</v>
       </c>
       <c r="B101">
-        <v>453.0700073242188</v>
+        <v>451.6700134277344</v>
       </c>
       <c r="C101">
-        <v>450.7099914550781</v>
+        <v>448.8599853515625</v>
       </c>
       <c r="D101">
-        <v>452.2300109863281</v>
+        <v>450.9100036621094</v>
       </c>
       <c r="E101">
-        <v>450.7858276367188</v>
+        <v>449.4700622558594</v>
       </c>
       <c r="F101">
-        <v>48357400</v>
+        <v>56181900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>452.1300048828125</v>
+        <v>450.7000122070312</v>
       </c>
       <c r="B102">
-        <v>452.489990234375</v>
+        <v>452.5700073242188</v>
       </c>
       <c r="C102">
-        <v>450.9200134277344</v>
+        <v>448.7200012207031</v>
       </c>
       <c r="D102">
-        <v>451.5599975585938</v>
+        <v>448.9800109863281</v>
       </c>
       <c r="E102">
-        <v>450.1179809570312</v>
+        <v>447.5462341308594</v>
       </c>
       <c r="F102">
-        <v>59300200</v>
+        <v>57970400</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>452.5599975585938</v>
+        <v>451.0400085449219</v>
       </c>
       <c r="B103">
-        <v>453.1099853515625</v>
+        <v>451.489990234375</v>
       </c>
       <c r="C103">
-        <v>451.5499877929688</v>
+        <v>445.3099975585938</v>
       </c>
       <c r="D103">
-        <v>451.7999877929688</v>
+        <v>445.4400024414062</v>
       </c>
       <c r="E103">
-        <v>450.357177734375</v>
+        <v>444.0175170898438</v>
       </c>
       <c r="F103">
-        <v>48721400</v>
+        <v>89848000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>453.3200073242188</v>
+        <v>448.6400146484375</v>
       </c>
       <c r="B104">
-        <v>454.0499877929688</v>
+        <v>448.9200134277344</v>
       </c>
       <c r="C104">
-        <v>451.9100036621094</v>
+        <v>444.1099853515625</v>
       </c>
       <c r="D104">
-        <v>453.1900024414062</v>
+        <v>446.5799865722656</v>
       </c>
       <c r="E104">
-        <v>451.7427673339844</v>
+        <v>445.1538696289062</v>
       </c>
       <c r="F104">
-        <v>42501000</v>
+        <v>83738600</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>451.9800109863281</v>
+        <v>448.1199951171875</v>
       </c>
       <c r="B105">
-        <v>453.6300048828125</v>
+        <v>448.3399963378906</v>
       </c>
       <c r="C105">
-        <v>451.5499877929688</v>
+        <v>443.2200012207031</v>
       </c>
       <c r="D105">
-        <v>453.0799865722656</v>
+        <v>444.1700134277344</v>
       </c>
       <c r="E105">
-        <v>451.6331176757812</v>
+        <v>442.7515869140625</v>
       </c>
       <c r="F105">
-        <v>47170500</v>
+        <v>78197100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>452.7099914550781</v>
+        <v>444.6199951171875</v>
       </c>
       <c r="B106">
-        <v>452.8099975585938</v>
+        <v>448.4100036621094</v>
       </c>
       <c r="C106">
-        <v>450.739990234375</v>
+        <v>443.4400024414062</v>
       </c>
       <c r="D106">
-        <v>451.4599914550781</v>
+        <v>447.8800048828125</v>
       </c>
       <c r="E106">
-        <v>450.0182800292969</v>
+        <v>446.4497375488281</v>
       </c>
       <c r="F106">
-        <v>51671500</v>
+        <v>78792200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>450.8900146484375</v>
+        <v>447.3200073242188</v>
       </c>
       <c r="B107">
-        <v>451.6700134277344</v>
+        <v>448.3599853515625</v>
       </c>
       <c r="C107">
-        <v>448.8599853515625</v>
+        <v>444.0199890136719</v>
       </c>
       <c r="D107">
-        <v>450.9100036621094</v>
+        <v>447.1700134277344</v>
       </c>
       <c r="E107">
-        <v>449.4700622558594</v>
+        <v>445.7420043945312</v>
       </c>
       <c r="F107">
-        <v>56181900</v>
+        <v>77786700</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>450.7000122070312</v>
+        <v>444.9200134277344</v>
       </c>
       <c r="B108">
-        <v>452.5700073242188</v>
+        <v>445.3699951171875</v>
       </c>
       <c r="C108">
-        <v>448.7200012207031</v>
+        <v>441.0199890136719</v>
       </c>
       <c r="D108">
-        <v>448.9800109863281</v>
+        <v>441.3999938964844</v>
       </c>
       <c r="E108">
-        <v>447.5462341308594</v>
+        <v>441.3999938964844</v>
       </c>
       <c r="F108">
-        <v>57970400</v>
+        <v>118425000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>451.0400085449219</v>
+        <v>434.8800048828125</v>
       </c>
       <c r="B109">
-        <v>451.489990234375</v>
+        <v>436.5599975585938</v>
       </c>
       <c r="C109">
-        <v>445.3099975585938</v>
+        <v>428.8599853515625</v>
       </c>
       <c r="D109">
-        <v>445.4400024414062</v>
+        <v>434.0400085449219</v>
       </c>
       <c r="E109">
-        <v>444.0175170898438</v>
+        <v>434.0400085449219</v>
       </c>
       <c r="F109">
-        <v>89848000</v>
+        <v>166445500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>448.6400146484375</v>
+        <v>436.5299987792969</v>
       </c>
       <c r="B110">
-        <v>448.9200134277344</v>
+        <v>437.9100036621094</v>
       </c>
       <c r="C110">
-        <v>444.1099853515625</v>
+        <v>433.0700073242188</v>
       </c>
       <c r="D110">
-        <v>446.5799865722656</v>
+        <v>433.6300048828125</v>
       </c>
       <c r="E110">
-        <v>445.1538696289062</v>
+        <v>433.6300048828125</v>
       </c>
       <c r="F110">
-        <v>83738600</v>
+        <v>92526100</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>448.1199951171875</v>
+        <v>436.0499877929688</v>
       </c>
       <c r="B111">
-        <v>448.3399963378906</v>
+        <v>440.0299987792969</v>
       </c>
       <c r="C111">
-        <v>443.2200012207031</v>
+        <v>433.75</v>
       </c>
       <c r="D111">
-        <v>444.1700134277344</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="E111">
-        <v>442.7515869140625</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="F111">
-        <v>78197100</v>
+        <v>102350100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>444.6199951171875</v>
+        <v>439.8500061035156</v>
       </c>
       <c r="B112">
-        <v>448.4100036621094</v>
+        <v>444.8900146484375</v>
       </c>
       <c r="C112">
-        <v>443.4400024414062</v>
+        <v>439.6000061035156</v>
       </c>
       <c r="D112">
-        <v>447.8800048828125</v>
+        <v>443.1799926757812</v>
       </c>
       <c r="E112">
-        <v>446.4497375488281</v>
+        <v>443.1799926757812</v>
       </c>
       <c r="F112">
-        <v>78792200</v>
+        <v>76396000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>447.3200073242188</v>
+        <v>441.4400024414062</v>
       </c>
       <c r="B113">
-        <v>448.3599853515625</v>
+        <v>444.6700134277344</v>
       </c>
       <c r="C113">
-        <v>444.0199890136719</v>
+        <v>441.2099914550781</v>
       </c>
       <c r="D113">
-        <v>447.1700134277344</v>
+        <v>443.9100036621094</v>
       </c>
       <c r="E113">
-        <v>445.7420043945312</v>
+        <v>443.9100036621094</v>
       </c>
       <c r="F113">
-        <v>77786700</v>
+        <v>62094800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>444.9200134277344</v>
+        <v>442.8099975585938</v>
       </c>
       <c r="B114">
-        <v>445.3699951171875</v>
+        <v>444.0499877929688</v>
       </c>
       <c r="C114">
-        <v>441.0199890136719</v>
+        <v>441.8999938964844</v>
       </c>
       <c r="D114">
-        <v>441.3999938964844</v>
+        <v>442.6400146484375</v>
       </c>
       <c r="E114">
-        <v>441.3999938964844</v>
+        <v>442.6400146484375</v>
       </c>
       <c r="F114">
-        <v>118425000</v>
+        <v>61371100</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>434.8800048828125</v>
+        <v>439.6900024414062</v>
       </c>
       <c r="B115">
-        <v>436.5599975585938</v>
+        <v>440.0400085449219</v>
       </c>
       <c r="C115">
-        <v>428.8599853515625</v>
+        <v>432.9400024414062</v>
       </c>
       <c r="D115">
-        <v>434.0400085449219</v>
+        <v>433.7200012207031</v>
       </c>
       <c r="E115">
-        <v>434.0400085449219</v>
+        <v>433.7200012207031</v>
       </c>
       <c r="F115">
-        <v>166445500</v>
+        <v>130436300</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>436.5299987792969</v>
+        <v>435.1900024414062</v>
       </c>
       <c r="B116">
-        <v>437.9100036621094</v>
+        <v>437.0400085449219</v>
       </c>
       <c r="C116">
-        <v>433.0700073242188</v>
+        <v>433.8500061035156</v>
       </c>
       <c r="D116">
-        <v>433.6300048828125</v>
+        <v>434.4500122070312</v>
       </c>
       <c r="E116">
-        <v>433.6300048828125</v>
+        <v>434.4500122070312</v>
       </c>
       <c r="F116">
-        <v>92526100</v>
+        <v>82329200</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>436.0499877929688</v>
+        <v>436.0199890136719</v>
       </c>
       <c r="B117">
-        <v>440.0299987792969</v>
+        <v>436.7699890136719</v>
       </c>
       <c r="C117">
-        <v>433.75</v>
+        <v>428.7799987792969</v>
       </c>
       <c r="D117">
-        <v>437.8599853515625</v>
+        <v>429.1400146484375</v>
       </c>
       <c r="E117">
-        <v>437.8599853515625</v>
+        <v>429.1400146484375</v>
       </c>
       <c r="F117">
-        <v>102350100</v>
+        <v>140181200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>439.8500061035156</v>
+        <v>430.9800109863281</v>
       </c>
       <c r="B118">
-        <v>444.8900146484375</v>
+        <v>436.0299987792969</v>
       </c>
       <c r="C118">
-        <v>439.6000061035156</v>
+        <v>427.2300109863281</v>
       </c>
       <c r="D118">
-        <v>443.1799926757812</v>
+        <v>434.239990234375</v>
       </c>
       <c r="E118">
-        <v>443.1799926757812</v>
+        <v>434.239990234375</v>
       </c>
       <c r="F118">
-        <v>76396000</v>
+        <v>129240100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>441.4400024414062</v>
+        <v>433</v>
       </c>
       <c r="B119">
-        <v>444.6700134277344</v>
+        <v>433.9599914550781</v>
       </c>
       <c r="C119">
-        <v>441.2099914550781</v>
+        <v>426.3599853515625</v>
       </c>
       <c r="D119">
-        <v>443.9100036621094</v>
+        <v>428.6400146484375</v>
       </c>
       <c r="E119">
-        <v>443.9100036621094</v>
+        <v>428.6400146484375</v>
       </c>
       <c r="F119">
-        <v>62094800</v>
+        <v>128570000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>442.8099975585938</v>
+        <v>430.239990234375</v>
       </c>
       <c r="B120">
-        <v>444.0499877929688</v>
+        <v>435.489990234375</v>
       </c>
       <c r="C120">
-        <v>441.8999938964844</v>
+        <v>429.3900146484375</v>
       </c>
       <c r="D120">
-        <v>442.6400146484375</v>
+        <v>433.1000061035156</v>
       </c>
       <c r="E120">
-        <v>442.6400146484375</v>
+        <v>433.1000061035156</v>
       </c>
       <c r="F120">
-        <v>61371100</v>
+        <v>90682500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>439.6900024414062</v>
+        <v>429.2699890136719</v>
       </c>
       <c r="B121">
-        <v>440.0400085449219</v>
+        <v>435.1199951171875</v>
       </c>
       <c r="C121">
-        <v>432.9400024414062</v>
+        <v>427.5400085449219</v>
       </c>
       <c r="D121">
-        <v>433.7200012207031</v>
+        <v>434.8999938964844</v>
       </c>
       <c r="E121">
-        <v>433.7200012207031</v>
+        <v>434.8999938964844</v>
       </c>
       <c r="F121">
-        <v>130436300</v>
+        <v>113032200</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>435.1900024414062</v>
+        <v>438.3900146484375</v>
       </c>
       <c r="B122">
-        <v>437.0400085449219</v>
+        <v>441.6799926757812</v>
       </c>
       <c r="C122">
-        <v>433.8500061035156</v>
+        <v>438.2000122070312</v>
       </c>
       <c r="D122">
-        <v>434.4500122070312</v>
+        <v>438.6600036621094</v>
       </c>
       <c r="E122">
-        <v>434.4500122070312</v>
+        <v>438.6600036621094</v>
       </c>
       <c r="F122">
-        <v>82329200</v>
+        <v>72437500</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>436.0199890136719</v>
+        <v>439.4800109863281</v>
       </c>
       <c r="B123">
-        <v>436.7699890136719</v>
+        <v>439.8900146484375</v>
       </c>
       <c r="C123">
-        <v>428.7799987792969</v>
+        <v>437.1900024414062</v>
       </c>
       <c r="D123">
-        <v>429.1400146484375</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="E123">
-        <v>429.1400146484375</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="F123">
-        <v>140181200</v>
+        <v>74492900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>430.9800109863281</v>
+        <v>437.1600036621094</v>
       </c>
       <c r="B124">
-        <v>436.0299987792969</v>
+        <v>440.260009765625</v>
       </c>
       <c r="C124">
-        <v>427.2300109863281</v>
+        <v>434.6199951171875</v>
       </c>
       <c r="D124">
-        <v>434.239990234375</v>
+        <v>434.6900024414062</v>
       </c>
       <c r="E124">
-        <v>434.239990234375</v>
+        <v>434.6900024414062</v>
       </c>
       <c r="F124">
-        <v>129240100</v>
+        <v>65233300</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>433</v>
+        <v>435.6700134277344</v>
       </c>
       <c r="B125">
-        <v>433.9599914550781</v>
+        <v>436.1000061035156</v>
       </c>
       <c r="C125">
-        <v>426.3599853515625</v>
+        <v>432.7799987792969</v>
       </c>
       <c r="D125">
-        <v>428.6400146484375</v>
+        <v>433.6199951171875</v>
       </c>
       <c r="E125">
-        <v>428.6400146484375</v>
+        <v>433.6199951171875</v>
       </c>
       <c r="F125">
-        <v>128570000</v>
+        <v>71181200</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>430.239990234375</v>
+        <v>434.7099914550781</v>
       </c>
       <c r="B126">
-        <v>435.489990234375</v>
+        <v>436.0499877929688</v>
       </c>
       <c r="C126">
-        <v>429.3900146484375</v>
+        <v>431.5400085449219</v>
       </c>
       <c r="D126">
-        <v>433.1000061035156</v>
+        <v>435.1799926757812</v>
       </c>
       <c r="E126">
-        <v>433.1000061035156</v>
+        <v>435.1799926757812</v>
       </c>
       <c r="F126">
-        <v>90682500</v>
+        <v>72974000</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>429.2699890136719</v>
+        <v>439.0799865722656</v>
       </c>
       <c r="B127">
-        <v>435.1199951171875</v>
+        <v>442.6600036621094</v>
       </c>
       <c r="C127">
-        <v>427.5400085449219</v>
+        <v>438.5799865722656</v>
       </c>
       <c r="D127">
-        <v>434.8999938964844</v>
+        <v>442.5</v>
       </c>
       <c r="E127">
-        <v>434.8999938964844</v>
+        <v>442.5</v>
       </c>
       <c r="F127">
-        <v>113032200</v>
+        <v>70236800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>438.3900146484375</v>
+        <v>444.75</v>
       </c>
       <c r="B128">
-        <v>441.6799926757812</v>
+        <v>446.260009765625</v>
       </c>
       <c r="C128">
-        <v>438.2000122070312</v>
+        <v>444.0899963378906</v>
       </c>
       <c r="D128">
-        <v>438.6600036621094</v>
+        <v>445.8699951171875</v>
       </c>
       <c r="E128">
-        <v>438.6600036621094</v>
+        <v>445.8699951171875</v>
       </c>
       <c r="F128">
-        <v>72437500</v>
+        <v>66226800</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>439.4800109863281</v>
+        <v>443.9700012207031</v>
       </c>
       <c r="B129">
-        <v>439.8900146484375</v>
+        <v>446.989990234375</v>
       </c>
       <c r="C129">
-        <v>437.1900024414062</v>
+        <v>443.2699890136719</v>
       </c>
       <c r="D129">
-        <v>437.8599853515625</v>
+        <v>446.8399963378906</v>
       </c>
       <c r="E129">
-        <v>437.8599853515625</v>
+        <v>446.8399963378906</v>
       </c>
       <c r="F129">
-        <v>74492900</v>
+        <v>22311609</v>
       </c>
     </row>
   </sheetData>
